--- a/manpower_log/HC02.xlsx
+++ b/manpower_log/HC02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF7C80-E189-4485-8114-978FDE41694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A8BA8-E349-4BA9-BBA8-54F587CB4044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9204" yWindow="300" windowWidth="13824" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="540" windowWidth="16764" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="331">
   <si>
     <t xml:space="preserve">    HC02</t>
   </si>
@@ -1503,6 +1503,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1518,20 +1527,11 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1836,14 +1836,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1960,11 +1960,11 @@
       <c r="J7" s="15">
         <v>3</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="4">
@@ -1989,11 +1989,11 @@
       <c r="J8" s="16">
         <v>1</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="4">
@@ -2018,11 +2018,11 @@
       <c r="J9" s="16">
         <v>1</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="4">
@@ -2040,20 +2040,18 @@
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="I10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="4">
@@ -2076,13 +2074,13 @@
         <v>27</v>
       </c>
       <c r="J11" s="16">
-        <v>4</v>
-      </c>
-      <c r="K11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="4">
@@ -2107,11 +2105,11 @@
       <c r="J12" s="16">
         <v>4</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="4">
@@ -2136,11 +2134,11 @@
       <c r="J13" s="16">
         <v>2</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="4">
@@ -2165,11 +2163,11 @@
       <c r="J14" s="16">
         <v>1</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="4">
@@ -2194,11 +2192,11 @@
       <c r="J15" s="16">
         <v>2</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="4">
@@ -2223,11 +2221,11 @@
       <c r="J16" s="16">
         <v>1</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="4">
@@ -2252,11 +2250,11 @@
       <c r="J17" s="16">
         <v>1</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="4">
@@ -2281,11 +2279,11 @@
       <c r="J18" s="17">
         <v>1</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="4">
@@ -2310,11 +2308,11 @@
       <c r="J19" s="17">
         <v>1</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="4">
@@ -2336,10 +2334,10 @@
       <c r="I20" s="14"/>
       <c r="J20" s="18">
         <f>SUM(J7:J19)</f>
-        <v>23</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
@@ -2359,10 +2357,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="4">
@@ -2381,12 +2379,12 @@
         <v>9</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="4">
@@ -2500,7 +2498,7 @@
         <v>55</v>
       </c>
       <c r="K26" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L26" s="22">
         <v>28</v>
@@ -2857,7 +2855,7 @@
       </c>
       <c r="K38" s="20">
         <f>SUM(K24:K37)</f>
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L38" s="20">
         <f>SUM(L24:L37)</f>
@@ -6843,16 +6841,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="K16:M16"/>
@@ -6860,6 +6848,16 @@
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/manpower_log/HC02.xlsx
+++ b/manpower_log/HC02.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA74A37-43CC-4E3F-8B2D-EC3AA33B9133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10187"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$264</definedName>
@@ -21,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="327">
   <si>
     <t xml:space="preserve">    HC02</t>
   </si>
@@ -1016,14 +1021,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,7 +1033,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="3" tint="0.799676503799554"/>
+      <color theme="3" tint="0.79964598529007846"/>
       <name val="Algerian"/>
       <charset val="134"/>
     </font>
@@ -1102,152 +1101,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1256,7 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.349986266670736"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,198 +1147,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1692,257 +1361,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,43 +1412,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2071,62 +1468,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2384,5008 +1767,5005 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.77777777777778" customWidth="1"/>
-    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="5.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="24.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.77777777777778" customWidth="1"/>
-    <col min="8" max="8" width="5.44444444444444" customWidth="1"/>
-    <col min="9" max="9" width="22.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="6.77777777777778" customWidth="1"/>
-    <col min="11" max="11" width="10.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="14" width="5.11111111111111" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="5">
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>3394</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="5">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3827</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="5">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>4238</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="5">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2927</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:13">
-      <c r="A7" s="5">
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3069</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="I7" s="15" t="s">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="I7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>3</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="5">
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1861</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="I8" s="15" t="s">
+      <c r="F8" s="8"/>
+      <c r="I8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="16">
         <v>1</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="5">
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>2993</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="I9" s="15" t="s">
+      <c r="F9" s="8"/>
+      <c r="I9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="16">
         <v>1</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="5">
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>2980</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="I10" s="15" t="s">
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="I10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="5">
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>2209</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="I11" s="15" t="s">
+      <c r="F11" s="8"/>
+      <c r="I11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <v>6</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="5">
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>3854</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="I12" s="15" t="s">
+      <c r="F12" s="8"/>
+      <c r="I12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="16">
         <v>4</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:13">
-      <c r="A13" s="5">
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>4581</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="I13" s="15" t="s">
+      <c r="F13" s="8"/>
+      <c r="I13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <v>2</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:13">
-      <c r="A14" s="5">
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2941</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="I14" s="15" t="s">
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="I14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <v>1</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="5">
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>4584</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="I15" s="15" t="s">
+      <c r="F15" s="8"/>
+      <c r="I15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="16">
         <v>2</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1595</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="I16" s="15" t="s">
+      <c r="F16" s="8"/>
+      <c r="I16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <v>1</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="5">
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>3005</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="I17" s="15" t="s">
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="I17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="16">
         <v>1</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="5">
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>3774</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="I18" s="15" t="s">
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="I18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="17">
         <v>1</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="5">
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>2581</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="I19" s="15" t="s">
+      <c r="F19" s="8"/>
+      <c r="I19" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="17">
         <v>1</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="5">
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>2081</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="22">
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="18">
         <f>SUM(J7:J19)</f>
         <v>25</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="5">
+      <c r="K20" s="36"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1758</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:12">
-      <c r="A22" s="5">
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>2360</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="I22" s="27" t="s">
+      <c r="F22" s="8"/>
+      <c r="I22" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:12">
-      <c r="A23" s="5">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>2898</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30" t="s">
+      <c r="F23" s="8"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:12">
-      <c r="A24" s="5">
+    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>2315</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="I24" s="31" t="s">
+      <c r="F24" s="8"/>
+      <c r="I24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="22">
         <v>23</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="22">
         <v>23</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:12">
-      <c r="A25" s="5">
+    <row r="25" spans="1:13" ht="15" customHeight="1">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>3843</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="I25" s="31" t="s">
+      <c r="F25" s="8"/>
+      <c r="I25" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="22">
         <v>5</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="22">
         <v>5</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:12">
-      <c r="A26" s="5">
+    <row r="26" spans="1:13" ht="15" customHeight="1">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>2743</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="I26" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="19">
-        <v>54</v>
-      </c>
-      <c r="K26" s="32">
+      <c r="F26" s="8"/>
+      <c r="I26" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="22">
         <v>26</v>
       </c>
-      <c r="L26" s="32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:12">
-      <c r="A27" s="5">
+      <c r="K26" s="22">
+        <v>26</v>
+      </c>
+      <c r="L26" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>4615</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="I27" s="31" t="s">
+      <c r="F27" s="8"/>
+      <c r="I27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="22">
         <v>4</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="22">
         <v>4</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:12">
-      <c r="A28" s="10">
+    <row r="28" spans="1:13" ht="15" customHeight="1">
+      <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>2264</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="I28" s="31" t="s">
+      <c r="F28" s="11"/>
+      <c r="I28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="19">
-        <v>22</v>
-      </c>
-      <c r="K28" s="32">
+      <c r="J28" s="22">
         <v>18</v>
       </c>
-      <c r="L28" s="32">
+      <c r="K28" s="22">
+        <v>18</v>
+      </c>
+      <c r="L28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1">
+      <c r="A29" s="9">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2350</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="I29" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="22">
+        <v>62</v>
+      </c>
+      <c r="K29" s="22">
+        <v>62</v>
+      </c>
+      <c r="L29" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2352</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="I30" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="22">
+        <v>5</v>
+      </c>
+      <c r="K30" s="22">
+        <v>3</v>
+      </c>
+      <c r="L30" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1">
+      <c r="A31" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:12">
-      <c r="A29" s="10">
-        <v>2</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2350</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="B31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2368</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="I29" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="19">
-        <v>62</v>
-      </c>
-      <c r="K29" s="32">
-        <v>62</v>
-      </c>
-      <c r="L29" s="32">
+      <c r="F31" s="11"/>
+      <c r="I31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="22">
+        <v>1</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1</v>
+      </c>
+      <c r="L31" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:12">
-      <c r="A30" s="10">
-        <v>3</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2352</v>
-      </c>
-      <c r="D30" s="11" t="s">
+    <row r="32" spans="1:13" ht="15" customHeight="1">
+      <c r="A32" s="9">
+        <v>5</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3083</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="I30" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="19">
-        <v>5</v>
-      </c>
-      <c r="K30" s="32">
-        <v>3</v>
-      </c>
-      <c r="L30" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:12">
-      <c r="A31" s="10">
+      <c r="E32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="I32" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="22">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="11">
-        <v>2368</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="K32" s="22">
+        <v>4</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="9">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3084</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="I31" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="19">
+      <c r="E33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="I33" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="22">
+        <v>48</v>
+      </c>
+      <c r="K33" s="22">
+        <v>48</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="9">
+        <v>7</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3085</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="I34" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="22">
         <v>1</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K34" s="22">
         <v>1</v>
       </c>
-      <c r="L31" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:12">
-      <c r="A32" s="10">
-        <v>5</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="11">
-        <v>3083</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="I32" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="32">
-        <v>4</v>
-      </c>
-      <c r="K32" s="32">
-        <v>4</v>
-      </c>
-      <c r="L32" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:12">
-      <c r="A33" s="10">
-        <v>6</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="11">
-        <v>3084</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="I33" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33" s="32">
-        <v>48</v>
-      </c>
-      <c r="K33" s="32">
-        <v>48</v>
-      </c>
-      <c r="L33" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:13">
-      <c r="A34" s="10">
-        <v>7</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="11">
-        <v>3085</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="I34" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J34" s="32">
-        <v>1</v>
-      </c>
-      <c r="K34" s="32">
-        <v>1</v>
-      </c>
-      <c r="L34" s="32">
+      <c r="L34" s="22">
         <v>0</v>
       </c>
       <c r="M34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:12">
-      <c r="A35" s="10">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
+      <c r="A35" s="9">
         <v>8</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>3086</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="I35" s="31" t="s">
+      <c r="F35" s="11"/>
+      <c r="I35" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="32">
+      <c r="J35" s="22">
         <v>1</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="22">
         <v>1</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:12">
-      <c r="A36" s="10">
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="9">
         <v>9</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>3087</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="I36" s="33" t="s">
+      <c r="F36" s="11"/>
+      <c r="I36" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="32">
-        <v>3</v>
-      </c>
-      <c r="K36" s="32">
+      <c r="J36" s="22">
+        <v>1</v>
+      </c>
+      <c r="K36" s="22">
         <v>0</v>
       </c>
-      <c r="L36" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:12">
-      <c r="A37" s="10">
+      <c r="L36" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
+      <c r="A37" s="9">
         <v>10</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>2362</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:12">
-      <c r="A38" s="10">
+      <c r="F37" s="11"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
+      <c r="A38" s="9">
         <v>11</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>2076</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="I38" s="30" t="s">
+      <c r="E38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="I38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="25">
         <f>SUM(J24:J37)</f>
-        <v>233</v>
-      </c>
-      <c r="K38" s="30">
+        <v>199</v>
+      </c>
+      <c r="K38" s="20">
         <f>SUM(K24:K37)</f>
         <v>196</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="20">
         <f>SUM(L24:L37)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
+      <c r="A39" s="9">
+        <v>12</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2048</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:6">
-      <c r="A39" s="10">
-        <v>12</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="11">
-        <v>2048</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="9">
+        <v>13</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3139</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:6">
-      <c r="A40" s="10">
-        <v>13</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="11">
-        <v>3139</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
+      <c r="A41" s="9">
+        <v>14</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3144</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
-      <c r="A41" s="10">
-        <v>14</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="11">
-        <v>3144</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="9">
+        <v>15</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3205</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:14">
-      <c r="A42" s="10">
-        <v>15</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="11">
-        <v>3205</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="11"/>
       <c r="N42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:6">
-      <c r="A43" s="10">
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="9">
         <v>16</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>2887</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
-      <c r="A44" s="10">
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
+      <c r="A44" s="9">
         <v>17</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>2886</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
-      <c r="A45" s="10">
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
+      <c r="A45" s="9">
         <v>18</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>2880</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:6">
-      <c r="A46" s="10">
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="9">
         <v>19</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>2874</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:6">
-      <c r="A47" s="10">
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="9">
         <v>20</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>2890</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:6">
-      <c r="A48" s="10">
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="9">
         <v>21</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>2891</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:6">
-      <c r="A49" s="10">
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1">
+      <c r="A49" s="9">
         <v>22</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <v>2889</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:6">
-      <c r="A50" s="10">
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1">
+      <c r="A50" s="9">
         <v>23</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>2008</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:6">
-      <c r="A51" s="10">
+      <c r="E50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="9">
         <v>24</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>2172</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:6">
-      <c r="A52" s="10">
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1">
+      <c r="A52" s="9">
         <v>25</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>3065</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:6">
-      <c r="A53" s="10">
+      <c r="E52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1">
+      <c r="A53" s="9">
         <v>26</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>2317</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:6">
-      <c r="A54" s="10">
+      <c r="E53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="A54" s="9">
         <v>27</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="12">
         <v>3361</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:6">
-      <c r="A55" s="10">
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="A55" s="9">
         <v>28</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="12">
         <v>3362</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:6">
-      <c r="A56" s="10">
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
+      <c r="A56" s="9">
         <v>29</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="12">
         <v>2778</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="13" t="s">
+      <c r="D56" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:6">
-      <c r="A57" s="10">
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="A57" s="9">
         <v>30</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>3033</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="13" t="s">
+      <c r="D57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:6">
-      <c r="A58" s="10">
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1">
+      <c r="A58" s="9">
         <v>31</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="12">
         <v>3035</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="13" t="s">
+      <c r="D58" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:6">
-      <c r="A59" s="10">
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="9">
         <v>32</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="12">
         <v>3036</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="13" t="s">
+      <c r="D59" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:6">
-      <c r="A60" s="10">
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="A60" s="9">
         <v>33</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="12">
         <v>3041</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="13" t="s">
+      <c r="D60" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:6">
-      <c r="A61" s="10">
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="A61" s="9">
         <v>34</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="12">
         <v>3173</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:6">
-      <c r="A62" s="10">
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1">
+      <c r="A62" s="9">
         <v>35</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="12">
         <v>3038</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="13" t="s">
+      <c r="D62" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:6">
-      <c r="A63" s="10">
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="A63" s="9">
         <v>36</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <v>3039</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="13" t="s">
+      <c r="D63" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:6">
-      <c r="A64" s="10">
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="A64" s="9">
         <v>37</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="12">
         <v>3042</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="13" t="s">
+      <c r="D64" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:6">
-      <c r="A65" s="10">
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1">
+      <c r="A65" s="9">
         <v>38</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="12">
         <v>3037</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="13" t="s">
+      <c r="D65" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:6">
-      <c r="A66" s="10">
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1">
+      <c r="A66" s="9">
         <v>39</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="12">
         <v>3328</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="13" t="s">
+      <c r="D66" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:6">
-      <c r="A67" s="10">
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1">
+      <c r="A67" s="9">
         <v>40</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="12">
         <v>3625</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="13" t="s">
+      <c r="D67" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:6">
-      <c r="A68" s="10">
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1">
+      <c r="A68" s="9">
         <v>41</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="12">
         <v>3628</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="13" t="s">
+      <c r="D68" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:6">
-      <c r="A69" s="10">
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1">
+      <c r="A69" s="9">
         <v>42</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>3658</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="13" t="s">
+      <c r="D69" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:6">
-      <c r="A70" s="10">
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1">
+      <c r="A70" s="9">
         <v>43</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="12">
         <v>3837</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="13" t="s">
+      <c r="D70" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:6">
-      <c r="A71" s="10">
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1">
+      <c r="A71" s="9">
         <v>44</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="12">
         <v>3001</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:6">
-      <c r="A72" s="10">
+      <c r="D71" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1">
+      <c r="A72" s="9">
         <v>45</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="12">
         <v>2660</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:6">
-      <c r="A73" s="10">
+      <c r="D72" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1">
+      <c r="A73" s="9">
         <v>46</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="12">
         <v>3147</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:6">
-      <c r="A74" s="10">
+      <c r="D73" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1">
+      <c r="A74" s="9">
         <v>47</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="12">
         <v>3148</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:6">
-      <c r="A75" s="10">
+      <c r="D74" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1">
+      <c r="A75" s="9">
         <v>48</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="12">
         <v>3002</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:6">
-      <c r="A76" s="10">
+      <c r="D75" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
+      <c r="A76" s="9">
         <v>49</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="12">
         <v>3000</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:6">
-      <c r="A77" s="10">
+      <c r="D76" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1">
+      <c r="A77" s="9">
         <v>50</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="12">
         <v>3146</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:6">
-      <c r="A78" s="10">
+      <c r="D77" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1">
+      <c r="A78" s="9">
         <v>51</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="12">
         <v>4140</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:6">
-      <c r="A79" s="10">
+      <c r="D78" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1">
+      <c r="A79" s="9">
         <v>52</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="12">
         <v>2066</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:6">
-      <c r="A80" s="10">
+      <c r="D79" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1">
+      <c r="A80" s="9">
         <v>53</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="12">
         <v>4851</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="D80" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:6">
-      <c r="A81" s="10">
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" customHeight="1">
+      <c r="A81" s="9">
         <v>54</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="12">
         <v>4850</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="11" t="s">
+      <c r="D81" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:6">
-      <c r="A82" s="10">
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1">
+      <c r="A82" s="9">
         <v>55</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E82" s="36" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:6">
-      <c r="A83" s="10">
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1">
+      <c r="A83" s="9">
         <v>56</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="36" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" ht="18" customHeight="1" spans="1:6">
-      <c r="A84" s="10">
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:6" ht="18" customHeight="1">
+      <c r="A84" s="9">
         <v>57</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="36" t="s">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:6">
-      <c r="A85" s="10">
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1">
+      <c r="A85" s="9">
         <v>58</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E85" s="36" t="s">
+      <c r="C85" s="12"/>
+      <c r="D85" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:6">
-      <c r="A86" s="10">
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1">
+      <c r="A86" s="9">
         <v>59</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86" s="36" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F86" s="14"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:6">
-      <c r="A87" s="10">
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1">
+      <c r="A87" s="9">
         <v>60</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E87" s="36" t="s">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:6">
-      <c r="A88" s="10">
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1">
+      <c r="A88" s="9">
         <v>61</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="36" t="s">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:6">
-      <c r="A89" s="10">
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1">
+      <c r="A89" s="9">
         <v>62</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="36" t="s">
+      <c r="C89" s="12"/>
+      <c r="D89" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:6">
-      <c r="A90" s="10">
+      <c r="F89" s="13"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1">
+      <c r="A90" s="9">
         <v>63</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="36" t="s">
+      <c r="C90" s="12"/>
+      <c r="D90" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:6">
-      <c r="A91" s="10">
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1">
+      <c r="A91" s="9">
         <v>64</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="36" t="s">
+      <c r="C91" s="12"/>
+      <c r="D91" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:6">
-      <c r="A92" s="10">
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1">
+      <c r="A92" s="9">
         <v>65</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="36" t="s">
+      <c r="C92" s="12"/>
+      <c r="D92" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" customHeight="1" spans="1:6">
-      <c r="A93" s="10">
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1">
+      <c r="A93" s="9">
         <v>66</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="36" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:6">
-      <c r="A94" s="10">
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1">
+      <c r="A94" s="9">
         <v>67</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E94" s="38" t="s">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F94" s="14"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:6">
-      <c r="A95" s="10">
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1">
+      <c r="A95" s="9">
         <v>68</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="38" t="s">
+      <c r="C95" s="12"/>
+      <c r="D95" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:6">
-      <c r="A96" s="10">
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1">
+      <c r="A96" s="9">
         <v>69</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E96" s="38" t="s">
+      <c r="C96" s="12"/>
+      <c r="D96" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:6">
-      <c r="A97" s="10">
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1">
+      <c r="A97" s="9">
         <v>70</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E97" s="38" t="s">
+      <c r="C97" s="12"/>
+      <c r="D97" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" customHeight="1" spans="1:6">
-      <c r="A98" s="10">
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1">
+      <c r="A98" s="9">
         <v>71</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" s="36" t="s">
+      <c r="C98" s="12"/>
+      <c r="D98" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" customHeight="1" spans="1:6">
-      <c r="A99" s="10">
-        <v>72</v>
-      </c>
-      <c r="B99" s="13" t="s">
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1">
+      <c r="A99" s="9">
+        <v>72</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E99" s="36" t="s">
+      <c r="C99" s="12"/>
+      <c r="D99" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:6">
-      <c r="A100" s="10">
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1">
+      <c r="A100" s="9">
         <v>73</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E100" s="36" t="s">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" customHeight="1" spans="1:6">
-      <c r="A101" s="10">
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1">
+      <c r="A101" s="9">
         <v>74</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E101" s="36" t="s">
+      <c r="C101" s="12"/>
+      <c r="D101" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F101" s="14"/>
-    </row>
-    <row r="102" customHeight="1" spans="1:6">
-      <c r="A102" s="10">
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1">
+      <c r="A102" s="9">
         <v>75</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E102" s="36" t="s">
+      <c r="C102" s="12"/>
+      <c r="D102" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:6">
-      <c r="A103" s="10">
+      <c r="F102" s="13"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1">
+      <c r="A103" s="9">
         <v>76</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103" s="36" t="s">
+      <c r="C103" s="12"/>
+      <c r="D103" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F103" s="14"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:6">
-      <c r="A104" s="10">
+      <c r="F103" s="13"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1">
+      <c r="A104" s="9">
         <v>77</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104" s="36" t="s">
+      <c r="C104" s="12"/>
+      <c r="D104" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F104" s="14"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:6">
-      <c r="A105" s="10">
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1">
+      <c r="A105" s="9">
         <v>78</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="36" t="s">
+      <c r="C105" s="12"/>
+      <c r="D105" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:6">
-      <c r="A106" s="10">
+      <c r="F105" s="13"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1">
+      <c r="A106" s="9">
         <v>79</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" s="36" t="s">
+      <c r="C106" s="12"/>
+      <c r="D106" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F106" s="14"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:6">
-      <c r="A107" s="10">
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1">
+      <c r="A107" s="9">
         <v>80</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107" s="36" t="s">
+      <c r="C107" s="12"/>
+      <c r="D107" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F107" s="14"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:6">
-      <c r="A108" s="10">
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1">
+      <c r="A108" s="9">
         <v>81</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E108" s="36" t="s">
+      <c r="C108" s="12"/>
+      <c r="D108" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E108" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F108" s="14"/>
-    </row>
-    <row r="109" customHeight="1" spans="1:6">
-      <c r="A109" s="10">
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1">
+      <c r="A109" s="9">
         <v>82</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E109" s="36" t="s">
+      <c r="C109" s="12"/>
+      <c r="D109" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F109" s="14"/>
-    </row>
-    <row r="110" ht="18" customHeight="1" spans="1:6">
-      <c r="A110" s="10">
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="1:6" ht="18" customHeight="1">
+      <c r="A110" s="9">
         <v>83</v>
       </c>
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="10">
         <v>2165</v>
       </c>
-      <c r="D110" s="39" t="s">
+      <c r="D110" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="14"/>
-    </row>
-    <row r="111" ht="18" customHeight="1" spans="1:6">
-      <c r="A111" s="10">
+      <c r="E110" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="1:6" ht="18" customHeight="1">
+      <c r="A111" s="9">
         <v>84</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="10">
         <v>1894</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F111" s="12"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:6">
-      <c r="A112" s="10">
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1">
+      <c r="A112" s="9">
         <v>85</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="10">
         <v>2169</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:6">
-      <c r="A113" s="10">
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1">
+      <c r="A113" s="9">
         <v>86</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="10">
         <v>1687</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:6">
-      <c r="A114" s="10">
+      <c r="E113" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1">
+      <c r="A114" s="9">
         <v>87</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="10">
         <v>3091</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F114" s="12"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:6">
-      <c r="A115" s="10">
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1">
+      <c r="A115" s="9">
         <v>88</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="10">
         <v>3161</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E115" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="12"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:6">
-      <c r="A116" s="10">
+      <c r="E115" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1">
+      <c r="A116" s="9">
         <v>89</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="10">
         <v>3092</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F116" s="12"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:6">
-      <c r="A117" s="10">
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1">
+      <c r="A117" s="9">
         <v>90</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="10">
         <v>3199</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="12"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:6">
-      <c r="A118" s="10">
+      <c r="E117" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="11"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1">
+      <c r="A118" s="9">
         <v>91</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="10">
         <v>3009</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E118" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="12"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:6">
-      <c r="A119" s="10">
+      <c r="E118" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1">
+      <c r="A119" s="9">
         <v>92</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>3231</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F119" s="12"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:6">
-      <c r="A120" s="10">
+      <c r="F119" s="11"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1">
+      <c r="A120" s="9">
         <v>93</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="10">
         <v>3106</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:6">
-      <c r="A121" s="10">
+      <c r="F120" s="11"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1">
+      <c r="A121" s="9">
         <v>94</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C121" s="10">
         <v>3102</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:6">
-      <c r="A122" s="10">
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1">
+      <c r="A122" s="9">
         <v>95</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="10">
         <v>3103</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F122" s="12"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:6">
-      <c r="A123" s="10">
+      <c r="F122" s="11"/>
+    </row>
+    <row r="123" spans="1:6" ht="15" customHeight="1">
+      <c r="A123" s="9">
         <v>96</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="10">
         <v>3108</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:6">
-      <c r="A124" s="10">
+      <c r="F123" s="11"/>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1">
+      <c r="A124" s="9">
         <v>97</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="10">
         <v>3230</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:6">
-      <c r="A125" s="10">
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1">
+      <c r="A125" s="9">
         <v>98</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="10">
         <v>3156</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E125" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="12"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:6">
-      <c r="A126" s="10">
+      <c r="E125" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1">
+      <c r="A126" s="9">
         <v>99</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="10">
         <v>3159</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E126" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="12"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:6">
-      <c r="A127" s="10">
+      <c r="E126" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1">
+      <c r="A127" s="9">
         <v>100</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="10">
         <v>1949</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E127" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="12"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:6">
-      <c r="A128" s="10">
+      <c r="E127" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="1:6" ht="15" customHeight="1">
+      <c r="A128" s="9">
         <v>101</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="10">
         <v>3158</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E128" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="12"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:6">
-      <c r="A129" s="10">
+      <c r="E128" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1">
+      <c r="A129" s="9">
         <v>102</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="10">
         <v>2079</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E129" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" customHeight="1" spans="1:6">
-      <c r="A130" s="10">
+      <c r="E129" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="1:6" ht="15" customHeight="1">
+      <c r="A130" s="9">
         <v>103</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="10">
         <v>2083</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="12"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:6">
-      <c r="A131" s="10">
+      <c r="E130" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:6" ht="15" customHeight="1">
+      <c r="A131" s="9">
         <v>104</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="10">
         <v>3014</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E131" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="12"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:6">
-      <c r="A132" s="10">
+      <c r="E131" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1">
+      <c r="A132" s="9">
         <v>105</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11" t="s">
+      <c r="C132" s="10"/>
+      <c r="D132" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E132" s="36" t="s">
+      <c r="E132" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F132" s="12"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:6">
-      <c r="A133" s="10">
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="1:6" ht="15" customHeight="1">
+      <c r="A133" s="9">
         <v>106</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11" t="s">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E133" s="36" t="s">
+      <c r="E133" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F133" s="12"/>
-    </row>
-    <row r="134" customHeight="1" spans="1:6">
-      <c r="A134" s="10">
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1">
+      <c r="A134" s="9">
         <v>107</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11" t="s">
+      <c r="C134" s="10"/>
+      <c r="D134" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E134" s="36" t="s">
+      <c r="E134" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F134" s="12"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:6">
-      <c r="A135" s="10">
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1">
+      <c r="A135" s="9">
         <v>108</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11" t="s">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F135" s="12"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:6">
-      <c r="A136" s="10">
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1">
+      <c r="A136" s="9">
         <v>109</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="10">
         <v>2897</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F136" s="12"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:6">
-      <c r="A137" s="10">
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1">
+      <c r="A137" s="9">
         <v>110</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="10">
         <v>3070</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E137" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="12"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:6">
-      <c r="A138" s="10">
+      <c r="E137" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1">
+      <c r="A138" s="9">
         <v>111</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="10">
         <v>3071</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E138" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="12"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:6">
-      <c r="A139" s="10">
+      <c r="E138" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1">
+      <c r="A139" s="9">
         <v>112</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="10">
         <v>3073</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E139" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="12"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:6">
-      <c r="A140" s="10">
+      <c r="E139" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1">
+      <c r="A140" s="9">
         <v>113</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="10">
         <v>3171</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E140" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="12"/>
-    </row>
-    <row r="141" customHeight="1" spans="1:6">
-      <c r="A141" s="10">
+      <c r="E140" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1">
+      <c r="A141" s="9">
         <v>114</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="10">
         <v>2906</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F141" s="12"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:6">
-      <c r="A142" s="10">
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1">
+      <c r="A142" s="9">
         <v>115</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="10">
         <v>3016</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E142" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="12"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:6">
-      <c r="A143" s="10">
+      <c r="E142" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1">
+      <c r="A143" s="9">
         <v>116</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="10">
         <v>2813</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F143" s="12"/>
-    </row>
-    <row r="144" customHeight="1" spans="1:6">
-      <c r="A144" s="10">
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:6" ht="15" customHeight="1">
+      <c r="A144" s="9">
         <v>117</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="10">
         <v>2803</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F144" s="12"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:6">
-      <c r="A145" s="10">
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" customHeight="1">
+      <c r="A145" s="9">
         <v>118</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C145" s="10">
         <v>2802</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F145" s="12"/>
-    </row>
-    <row r="146" customHeight="1" spans="1:6">
-      <c r="A146" s="10">
+      <c r="F145" s="11"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1">
+      <c r="A146" s="9">
         <v>119</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="10">
         <v>4158</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E146" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" s="12"/>
-    </row>
-    <row r="147" customHeight="1" spans="1:6">
-      <c r="A147" s="10">
+      <c r="E146" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="11"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" customHeight="1">
+      <c r="A147" s="9">
         <v>120</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="10">
         <v>4169</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E147" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="12"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:6">
-      <c r="A148" s="10">
+      <c r="E147" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="11"/>
+    </row>
+    <row r="148" spans="1:6" ht="15" customHeight="1">
+      <c r="A148" s="9">
         <v>121</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="10">
         <v>4164</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E148" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="12"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:6">
-      <c r="A149" s="10">
+      <c r="E148" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="11"/>
+    </row>
+    <row r="149" spans="1:6" ht="15" customHeight="1">
+      <c r="A149" s="9">
         <v>122</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C149" s="10">
         <v>4162</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E149" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="150" customHeight="1" spans="1:6">
-      <c r="A150" s="10">
+      <c r="E149" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="11"/>
+    </row>
+    <row r="150" spans="1:6" ht="15" customHeight="1">
+      <c r="A150" s="9">
         <v>123</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C150" s="10">
         <v>4165</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E150" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="12"/>
-    </row>
-    <row r="151" customHeight="1" spans="1:6">
-      <c r="A151" s="10">
+      <c r="E150" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="11"/>
+    </row>
+    <row r="151" spans="1:6" ht="15" customHeight="1">
+      <c r="A151" s="9">
         <v>124</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C151" s="11">
+      <c r="C151" s="10">
         <v>4166</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E151" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" s="12"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:6">
-      <c r="A152" s="10">
+      <c r="E151" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="11"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" customHeight="1">
+      <c r="A152" s="9">
         <v>125</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="10">
         <v>4157</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="12"/>
-    </row>
-    <row r="153" customHeight="1" spans="1:6">
-      <c r="A153" s="10">
+      <c r="E152" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" spans="1:6" ht="15" customHeight="1">
+      <c r="A153" s="9">
         <v>126</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="10">
         <v>4163</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E153" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="12"/>
-    </row>
-    <row r="154" customHeight="1" spans="1:6">
-      <c r="A154" s="10">
+      <c r="E153" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="11"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1">
+      <c r="A154" s="9">
         <v>127</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C154" s="10">
         <v>4173</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E154" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="12"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:6">
-      <c r="A155" s="10">
+      <c r="E154" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1">
+      <c r="A155" s="9">
         <v>128</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C155" s="11">
+      <c r="C155" s="10">
         <v>4156</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E155" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="12"/>
-    </row>
-    <row r="156" customHeight="1" spans="1:6">
-      <c r="A156" s="10">
+      <c r="E155" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" customHeight="1">
+      <c r="A156" s="9">
         <v>129</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C156" s="10">
         <v>4174</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D156" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E156" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="12"/>
-    </row>
-    <row r="157" customHeight="1" spans="1:6">
-      <c r="A157" s="10">
+      <c r="E156" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="11"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" customHeight="1">
+      <c r="A157" s="9">
         <v>130</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C157" s="11">
+      <c r="C157" s="10">
         <v>4179</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E157" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="12"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:6">
-      <c r="A158" s="10">
+      <c r="E157" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="11"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1">
+      <c r="A158" s="9">
         <v>131</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C158" s="40">
+      <c r="C158" s="30">
         <v>4203</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E158" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="12"/>
-    </row>
-    <row r="159" customHeight="1" spans="1:6">
-      <c r="A159" s="10">
+      <c r="E158" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="11"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1">
+      <c r="A159" s="9">
         <v>132</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C159" s="40">
+      <c r="C159" s="30">
         <v>4205</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E159" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F159" s="12"/>
-    </row>
-    <row r="160" customHeight="1" spans="1:6">
-      <c r="A160" s="10">
+      <c r="E159" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="11"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1">
+      <c r="A160" s="9">
         <v>133</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C160" s="40">
+      <c r="C160" s="30">
         <v>4206</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E160" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" s="12"/>
-    </row>
-    <row r="161" customHeight="1" spans="1:6">
-      <c r="A161" s="10">
+      <c r="E160" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="11"/>
+    </row>
+    <row r="161" spans="1:6" ht="15" customHeight="1">
+      <c r="A161" s="9">
         <v>134</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C161" s="40">
+      <c r="C161" s="30">
         <v>4207</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E161" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="12"/>
-    </row>
-    <row r="162" customHeight="1" spans="1:6">
-      <c r="A162" s="10">
+      <c r="E161" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="11"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" customHeight="1">
+      <c r="A162" s="9">
         <v>135</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C162" s="40">
+      <c r="C162" s="30">
         <v>2647</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E162" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="12"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:6">
-      <c r="A163" s="10">
+      <c r="E162" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="11"/>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1">
+      <c r="A163" s="9">
         <v>136</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C163" s="40">
+      <c r="C163" s="30">
         <v>3078</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E163" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" s="12"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:6">
-      <c r="A164" s="10">
+      <c r="E163" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="11"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1">
+      <c r="A164" s="9">
         <v>137</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C164" s="40">
+      <c r="C164" s="30">
         <v>2088</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E164" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" s="12"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:6">
-      <c r="A165" s="10">
+      <c r="E164" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="11"/>
+    </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1">
+      <c r="A165" s="9">
         <v>138</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C165" s="40">
+      <c r="C165" s="30">
         <v>2964</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E165" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" s="12"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:6">
-      <c r="A166" s="10">
+      <c r="E165" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="11"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1">
+      <c r="A166" s="9">
         <v>139</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C166" s="40">
+      <c r="C166" s="30">
         <v>3254</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E166" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" s="12"/>
-    </row>
-    <row r="167" customHeight="1" spans="1:6">
-      <c r="A167" s="10">
+      <c r="E166" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="11"/>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1">
+      <c r="A167" s="9">
         <v>140</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C167" s="40">
+      <c r="C167" s="30">
         <v>3260</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="D167" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E167" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F167" s="12"/>
-    </row>
-    <row r="168" customHeight="1" spans="1:6">
-      <c r="A168" s="10">
+      <c r="E167" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="11"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1">
+      <c r="A168" s="9">
         <v>141</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C168" s="40">
+      <c r="C168" s="30">
         <v>1896</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="D168" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E168" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F168" s="12"/>
-    </row>
-    <row r="169" customHeight="1" spans="1:6">
-      <c r="A169" s="10">
+      <c r="F168" s="11"/>
+    </row>
+    <row r="169" spans="1:6" ht="15" customHeight="1">
+      <c r="A169" s="9">
         <v>142</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C169" s="40">
+      <c r="C169" s="30">
         <v>1916</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F169" s="12"/>
-    </row>
-    <row r="170" customHeight="1" spans="1:6">
-      <c r="A170" s="10">
+      <c r="F169" s="11"/>
+    </row>
+    <row r="170" spans="1:6" ht="15" customHeight="1">
+      <c r="A170" s="9">
         <v>143</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C170" s="40">
+      <c r="C170" s="30">
         <v>2864</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F170" s="12"/>
-    </row>
-    <row r="171" customHeight="1" spans="1:6">
-      <c r="A171" s="10">
+      <c r="F170" s="11"/>
+    </row>
+    <row r="171" spans="1:6" ht="15" customHeight="1">
+      <c r="A171" s="9">
         <v>144</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="11">
         <v>2649</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F171" s="12"/>
-    </row>
-    <row r="172" customHeight="1" spans="1:6">
-      <c r="A172" s="10">
+      <c r="F171" s="11"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1">
+      <c r="A172" s="9">
         <v>145</v>
       </c>
-      <c r="B172" s="41" t="s">
+      <c r="B172" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="11">
         <v>3098</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F172" s="12"/>
-    </row>
-    <row r="173" customHeight="1" spans="1:6">
-      <c r="A173" s="10">
+      <c r="F172" s="11"/>
+    </row>
+    <row r="173" spans="1:6" ht="15" customHeight="1">
+      <c r="A173" s="9">
         <v>146</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="11">
         <v>4785</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F173" s="12"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:6">
-      <c r="A174" s="10">
+      <c r="F173" s="11"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" customHeight="1">
+      <c r="A174" s="9">
         <v>147</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="11">
         <v>4786</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F174" s="12"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:6">
-      <c r="A175" s="10">
+      <c r="F174" s="11"/>
+    </row>
+    <row r="175" spans="1:6" ht="15" customHeight="1">
+      <c r="A175" s="9">
         <v>148</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="11">
         <v>4787</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D175" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F175" s="12"/>
-    </row>
-    <row r="176" customHeight="1" spans="1:6">
-      <c r="A176" s="10">
+      <c r="F175" s="11"/>
+    </row>
+    <row r="176" spans="1:6" ht="15" customHeight="1">
+      <c r="A176" s="9">
         <v>149</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="11">
         <v>4788</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F176" s="12"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:6">
-      <c r="A177" s="10">
+      <c r="F176" s="11"/>
+    </row>
+    <row r="177" spans="1:6" ht="15" customHeight="1">
+      <c r="A177" s="9">
         <v>150</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C177" s="12">
+      <c r="C177" s="11">
         <v>4789</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="D177" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F177" s="12"/>
-    </row>
-    <row r="178" customHeight="1" spans="1:6">
-      <c r="A178" s="10">
+      <c r="F177" s="11"/>
+    </row>
+    <row r="178" spans="1:6" ht="15" customHeight="1">
+      <c r="A178" s="9">
         <v>151</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C178" s="42">
+      <c r="C178" s="32">
         <v>4812</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D178" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E178" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F178" s="12"/>
-    </row>
-    <row r="179" customHeight="1" spans="1:6">
-      <c r="A179" s="10">
+      <c r="E178" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="11"/>
+    </row>
+    <row r="179" spans="1:6" ht="15" customHeight="1">
+      <c r="A179" s="9">
         <v>152</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C179" s="42">
+      <c r="C179" s="32">
         <v>4811</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E179" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179" s="12"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:6">
-      <c r="A180" s="10">
+      <c r="E179" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="11"/>
+    </row>
+    <row r="180" spans="1:6" ht="15" customHeight="1">
+      <c r="A180" s="9">
         <v>153</v>
       </c>
-      <c r="B180" s="37" t="s">
+      <c r="B180" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C180" s="37">
+      <c r="C180" s="27">
         <v>2220</v>
       </c>
-      <c r="D180" s="37" t="s">
+      <c r="D180" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E180" s="37" t="s">
+      <c r="E180" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F180" s="12"/>
-    </row>
-    <row r="181" customHeight="1" spans="1:6">
-      <c r="A181" s="10">
+      <c r="F180" s="11"/>
+    </row>
+    <row r="181" spans="1:6" ht="15" customHeight="1">
+      <c r="A181" s="9">
         <v>154</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C181" s="11">
+      <c r="C181" s="10">
         <v>2983</v>
       </c>
-      <c r="D181" s="11" t="s">
+      <c r="D181" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E181" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F181" s="12"/>
-    </row>
-    <row r="182" customHeight="1" spans="1:6">
-      <c r="A182" s="10">
+      <c r="E181" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="11"/>
+    </row>
+    <row r="182" spans="1:6" ht="15" customHeight="1">
+      <c r="A182" s="9">
         <v>155</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="10">
         <v>4160</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" s="12"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:6">
-      <c r="A183" s="10">
+      <c r="E182" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="11"/>
+    </row>
+    <row r="183" spans="1:6" ht="15" customHeight="1">
+      <c r="A183" s="9">
         <v>156</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C183" s="42">
+      <c r="C183" s="32">
         <v>4780</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="D183" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F183" s="12"/>
-    </row>
-    <row r="184" customHeight="1" spans="1:6">
-      <c r="A184" s="10">
+      <c r="E183" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="11"/>
+    </row>
+    <row r="184" spans="1:6" ht="15" customHeight="1">
+      <c r="A184" s="9">
         <v>157</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C184" s="42">
+      <c r="C184" s="32">
         <v>4558</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E184" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" s="12"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:6">
-      <c r="A185" s="10">
+      <c r="E184" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="11"/>
+    </row>
+    <row r="185" spans="1:6" ht="15" customHeight="1">
+      <c r="A185" s="9">
         <v>158</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C185" s="42">
+      <c r="C185" s="32">
         <v>4570</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="E185" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F185" s="12"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:6">
-      <c r="A186" s="10">
+      <c r="F185" s="11"/>
+    </row>
+    <row r="186" spans="1:6" ht="15" customHeight="1">
+      <c r="A186" s="9">
         <v>159</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C186" s="42">
+      <c r="C186" s="32">
         <v>4771</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E186" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="12"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:6">
-      <c r="A187" s="10">
+      <c r="E186" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="11"/>
+    </row>
+    <row r="187" spans="1:6" ht="15" customHeight="1">
+      <c r="A187" s="9">
         <v>160</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C187" s="42">
+      <c r="C187" s="32">
         <v>4782</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F187" s="12"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:6">
-      <c r="A188" s="10">
+      <c r="F187" s="11"/>
+    </row>
+    <row r="188" spans="1:6" ht="15" customHeight="1">
+      <c r="A188" s="9">
         <v>161</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C188" s="42">
+      <c r="C188" s="32">
         <v>4783</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E188" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F188" s="12"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:6">
-      <c r="A189" s="10">
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" spans="1:6" ht="15" customHeight="1">
+      <c r="A189" s="9">
         <v>162</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C189" s="42">
+      <c r="C189" s="32">
         <v>4790</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="D189" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E189" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F189" s="12"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:6">
-      <c r="A190" s="10">
+      <c r="F189" s="11"/>
+    </row>
+    <row r="190" spans="1:6" ht="15" customHeight="1">
+      <c r="A190" s="9">
         <v>163</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C190" s="10">
         <v>2015</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E190" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F190" s="12"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:6">
-      <c r="A191" s="10">
+      <c r="F190" s="11"/>
+    </row>
+    <row r="191" spans="1:6" ht="15" customHeight="1">
+      <c r="A191" s="9">
         <v>164</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C191" s="11">
+      <c r="C191" s="10">
         <v>2997</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="E191" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F191" s="12"/>
-    </row>
-    <row r="192" customHeight="1" spans="1:6">
-      <c r="A192" s="10">
+      <c r="F191" s="11"/>
+    </row>
+    <row r="192" spans="1:6" ht="15" customHeight="1">
+      <c r="A192" s="9">
         <v>165</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C192" s="11">
+      <c r="C192" s="10">
         <v>3100</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="E192" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F192" s="12"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:6">
-      <c r="A193" s="10">
+      <c r="F192" s="11"/>
+    </row>
+    <row r="193" spans="1:6" ht="15" customHeight="1">
+      <c r="A193" s="9">
         <v>166</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C193" s="11">
+      <c r="C193" s="10">
         <v>2867</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E193" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F193" s="12"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:6">
-      <c r="A194" s="10">
+      <c r="F193" s="11"/>
+    </row>
+    <row r="194" spans="1:6" ht="15" customHeight="1">
+      <c r="A194" s="9">
         <v>167</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C194" s="11">
+      <c r="C194" s="10">
         <v>2812</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E194" s="11" t="s">
+      <c r="E194" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F194" s="12"/>
-    </row>
-    <row r="195" customHeight="1" spans="1:6">
-      <c r="A195" s="10">
+      <c r="F194" s="11"/>
+    </row>
+    <row r="195" spans="1:6" ht="15" customHeight="1">
+      <c r="A195" s="9">
         <v>168</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C195" s="11">
+      <c r="C195" s="10">
         <v>2796</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F195" s="12"/>
-    </row>
-    <row r="196" customHeight="1" spans="1:6">
-      <c r="A196" s="10">
+      <c r="F195" s="11"/>
+    </row>
+    <row r="196" spans="1:6" ht="15" customHeight="1">
+      <c r="A196" s="9">
         <v>169</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C196" s="11">
+      <c r="C196" s="10">
         <v>1362</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E196" s="36" t="s">
+      <c r="E196" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F196" s="12"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:6">
-      <c r="A197" s="10">
+      <c r="F196" s="11"/>
+    </row>
+    <row r="197" spans="1:6" ht="15" customHeight="1">
+      <c r="A197" s="9">
         <v>170</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C197" s="11">
+      <c r="C197" s="10">
         <v>1774</v>
       </c>
-      <c r="D197" s="11" t="s">
+      <c r="D197" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E197" s="36" t="s">
+      <c r="E197" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F197" s="12"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:6">
-      <c r="A198" s="10">
+      <c r="F197" s="11"/>
+    </row>
+    <row r="198" spans="1:6" ht="15" customHeight="1">
+      <c r="A198" s="9">
         <v>171</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C198" s="11">
+      <c r="C198" s="10">
         <v>2207</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="D198" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E198" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F198" s="12"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:6">
-      <c r="A199" s="10">
+      <c r="E198" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="11"/>
+    </row>
+    <row r="199" spans="1:6" ht="15" customHeight="1">
+      <c r="A199" s="9">
         <v>172</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C199" s="11">
+      <c r="C199" s="10">
         <v>2178</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="D199" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E199" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F199" s="12"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:6">
-      <c r="A200" s="10">
+      <c r="E199" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="11"/>
+    </row>
+    <row r="200" spans="1:6" ht="15" customHeight="1">
+      <c r="A200" s="9">
         <v>173</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C200" s="11">
+      <c r="C200" s="10">
         <v>1926</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E200" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F200" s="12"/>
-    </row>
-    <row r="201" customHeight="1" spans="1:6">
-      <c r="A201" s="10">
+      <c r="E200" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="11"/>
+    </row>
+    <row r="201" spans="1:6" ht="15" customHeight="1">
+      <c r="A201" s="9">
         <v>174</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11" t="s">
+      <c r="C201" s="10"/>
+      <c r="D201" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E201" s="36" t="s">
+      <c r="E201" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="F201" s="12"/>
-    </row>
-    <row r="202" customHeight="1" spans="1:6">
-      <c r="A202" s="10">
+      <c r="F201" s="11"/>
+    </row>
+    <row r="202" spans="1:6" ht="15" customHeight="1">
+      <c r="A202" s="9">
         <v>175</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11" t="s">
+      <c r="C202" s="10"/>
+      <c r="D202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E202" s="36" t="s">
+      <c r="E202" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="F202" s="12"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:6">
-      <c r="A203" s="10">
+      <c r="F202" s="11"/>
+    </row>
+    <row r="203" spans="1:6" ht="15" customHeight="1">
+      <c r="A203" s="9">
         <v>176</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11" t="s">
+      <c r="C203" s="10"/>
+      <c r="D203" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E203" s="36" t="s">
+      <c r="E203" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="F203" s="12"/>
-    </row>
-    <row r="204" customHeight="1" spans="1:6">
-      <c r="A204" s="10">
+      <c r="F203" s="11"/>
+    </row>
+    <row r="204" spans="1:6" ht="15" customHeight="1">
+      <c r="A204" s="9">
         <v>177</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11" t="s">
+      <c r="C204" s="10"/>
+      <c r="D204" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E204" s="36" t="s">
+      <c r="E204" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F204" s="12"/>
-    </row>
-    <row r="205" customHeight="1" spans="1:6">
-      <c r="A205" s="10">
+      <c r="F204" s="11"/>
+    </row>
+    <row r="205" spans="1:6" ht="15" customHeight="1">
+      <c r="A205" s="9">
         <v>178</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11" t="s">
+      <c r="C205" s="10"/>
+      <c r="D205" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E205" s="36" t="s">
+      <c r="E205" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F205" s="12"/>
-    </row>
-    <row r="206" customHeight="1" spans="1:6">
-      <c r="A206" s="10">
+      <c r="F205" s="11"/>
+    </row>
+    <row r="206" spans="1:6" ht="15" customHeight="1">
+      <c r="A206" s="9">
         <v>179</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C206" s="11">
+      <c r="C206" s="10">
         <v>1695</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="D206" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E206" s="36" t="s">
+      <c r="E206" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F206" s="12"/>
-    </row>
-    <row r="207" customHeight="1" spans="1:6">
-      <c r="A207" s="10">
+      <c r="F206" s="11"/>
+    </row>
+    <row r="207" spans="1:6" ht="15" customHeight="1">
+      <c r="A207" s="9">
         <v>180</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C207" s="11">
+      <c r="C207" s="10">
         <v>3301</v>
       </c>
-      <c r="D207" s="11" t="s">
+      <c r="D207" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E207" s="36" t="s">
+      <c r="E207" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F207" s="12"/>
-    </row>
-    <row r="208" customHeight="1" spans="1:6">
-      <c r="A208" s="10">
+      <c r="F207" s="11"/>
+    </row>
+    <row r="208" spans="1:6" ht="15" customHeight="1">
+      <c r="A208" s="9">
         <v>181</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C208" s="11">
+      <c r="C208" s="10">
         <v>3119</v>
       </c>
-      <c r="D208" s="11" t="s">
+      <c r="D208" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E208" s="36" t="s">
+      <c r="E208" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F208" s="12"/>
-    </row>
-    <row r="209" customHeight="1" spans="1:6">
-      <c r="A209" s="10">
+      <c r="F208" s="11"/>
+    </row>
+    <row r="209" spans="1:6" ht="15" customHeight="1">
+      <c r="A209" s="9">
         <v>182</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C209" s="11">
+      <c r="C209" s="10">
         <v>3319</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D209" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E209" s="36" t="s">
+      <c r="E209" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F209" s="12"/>
-    </row>
-    <row r="210" customHeight="1" spans="1:6">
-      <c r="A210" s="10">
+      <c r="F209" s="11"/>
+    </row>
+    <row r="210" spans="1:6" ht="15" customHeight="1">
+      <c r="A210" s="9">
         <v>183</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C210" s="11">
+      <c r="C210" s="10">
         <v>3143</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D210" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E210" s="36" t="s">
+      <c r="E210" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F210" s="12"/>
-    </row>
-    <row r="211" customHeight="1" spans="1:6">
-      <c r="A211" s="10">
+      <c r="F210" s="11"/>
+    </row>
+    <row r="211" spans="1:6" ht="15" customHeight="1">
+      <c r="A211" s="9">
         <v>184</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C211" s="11">
+      <c r="C211" s="10">
         <v>3176</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E211" s="36" t="s">
+      <c r="E211" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F211" s="12"/>
-    </row>
-    <row r="212" customHeight="1" spans="1:6">
-      <c r="A212" s="10">
+      <c r="F211" s="11"/>
+    </row>
+    <row r="212" spans="1:6" ht="15" customHeight="1">
+      <c r="A212" s="9">
         <v>185</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C212" s="11">
+      <c r="C212" s="10">
         <v>3300</v>
       </c>
-      <c r="D212" s="11" t="s">
+      <c r="D212" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E212" s="36" t="s">
+      <c r="E212" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F212" s="12"/>
-    </row>
-    <row r="213" customHeight="1" spans="1:6">
-      <c r="A213" s="10">
+      <c r="F212" s="11"/>
+    </row>
+    <row r="213" spans="1:6" ht="15" customHeight="1">
+      <c r="A213" s="9">
         <v>186</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C213" s="11">
+      <c r="C213" s="10">
         <v>3185</v>
       </c>
-      <c r="D213" s="11" t="s">
+      <c r="D213" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E213" s="36" t="s">
+      <c r="E213" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F213" s="12"/>
-    </row>
-    <row r="214" customHeight="1" spans="1:6">
-      <c r="A214" s="10">
+      <c r="F213" s="11"/>
+    </row>
+    <row r="214" spans="1:6" ht="15" customHeight="1">
+      <c r="A214" s="9">
         <v>187</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C214" s="11">
+      <c r="C214" s="10">
         <v>3116</v>
       </c>
-      <c r="D214" s="11" t="s">
+      <c r="D214" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E214" s="36" t="s">
+      <c r="E214" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F214" s="12"/>
-    </row>
-    <row r="215" customHeight="1" spans="1:6">
-      <c r="A215" s="10">
+      <c r="F214" s="11"/>
+    </row>
+    <row r="215" spans="1:6" ht="15" customHeight="1">
+      <c r="A215" s="9">
         <v>188</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C215" s="11">
+      <c r="C215" s="10">
         <v>2180</v>
       </c>
-      <c r="D215" s="11" t="s">
+      <c r="D215" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E215" s="36" t="s">
+      <c r="E215" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F215" s="12"/>
-    </row>
-    <row r="216" customHeight="1" spans="1:6">
-      <c r="A216" s="10">
+      <c r="F215" s="11"/>
+    </row>
+    <row r="216" spans="1:6" ht="15" customHeight="1">
+      <c r="A216" s="9">
         <v>189</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C216" s="11">
+      <c r="C216" s="10">
         <v>4736</v>
       </c>
-      <c r="D216" s="11" t="s">
+      <c r="D216" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E216" s="36" t="s">
+      <c r="E216" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F216" s="12"/>
-    </row>
-    <row r="217" customHeight="1" spans="1:6">
-      <c r="A217" s="10">
+      <c r="F216" s="11"/>
+    </row>
+    <row r="217" spans="1:6" ht="15" customHeight="1">
+      <c r="A217" s="9">
         <v>190</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C217" s="11">
+      <c r="C217" s="10">
         <v>4629</v>
       </c>
-      <c r="D217" s="11" t="s">
+      <c r="D217" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E217" s="36" t="s">
+      <c r="E217" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F217" s="12"/>
-    </row>
-    <row r="218" customHeight="1" spans="1:6">
-      <c r="A218" s="10">
+      <c r="F217" s="11"/>
+    </row>
+    <row r="218" spans="1:6" ht="15" customHeight="1">
+      <c r="A218" s="9">
         <v>191</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C218" s="11">
+      <c r="C218" s="10">
         <v>4625</v>
       </c>
-      <c r="D218" s="11" t="s">
+      <c r="D218" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E218" s="36" t="s">
+      <c r="E218" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F218" s="12"/>
-    </row>
-    <row r="219" customHeight="1" spans="1:6">
-      <c r="A219" s="10">
+      <c r="F218" s="11"/>
+    </row>
+    <row r="219" spans="1:6" ht="15" customHeight="1">
+      <c r="A219" s="9">
         <v>192</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B219" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C219" s="11">
+      <c r="C219" s="10">
         <v>4626</v>
       </c>
-      <c r="D219" s="11" t="s">
+      <c r="D219" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E219" s="36" t="s">
+      <c r="E219" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F219" s="12"/>
-    </row>
-    <row r="220" customHeight="1" spans="1:6">
-      <c r="A220" s="10">
+      <c r="F219" s="11"/>
+    </row>
+    <row r="220" spans="1:6" ht="15" customHeight="1">
+      <c r="A220" s="9">
         <v>193</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C220" s="11">
+      <c r="C220" s="10">
         <v>4619</v>
       </c>
-      <c r="D220" s="11" t="s">
+      <c r="D220" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E220" s="36" t="s">
+      <c r="E220" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F220" s="12"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:6">
-      <c r="A221" s="10">
+      <c r="F220" s="11"/>
+    </row>
+    <row r="221" spans="1:6" ht="15" customHeight="1">
+      <c r="A221" s="9">
         <v>194</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C221" s="11">
+      <c r="C221" s="10">
         <v>4631</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E221" s="36" t="s">
+      <c r="E221" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F221" s="12"/>
-    </row>
-    <row r="222" customHeight="1" spans="1:6">
-      <c r="A222" s="10">
+      <c r="F221" s="11"/>
+    </row>
+    <row r="222" spans="1:6" ht="15" customHeight="1">
+      <c r="A222" s="9">
         <v>195</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C222" s="11">
+      <c r="C222" s="10">
         <v>4628</v>
       </c>
-      <c r="D222" s="11" t="s">
+      <c r="D222" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E222" s="36" t="s">
+      <c r="E222" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F222" s="12"/>
-    </row>
-    <row r="223" customHeight="1" spans="1:6">
-      <c r="A223" s="10">
+      <c r="F222" s="11"/>
+    </row>
+    <row r="223" spans="1:6" ht="15" customHeight="1">
+      <c r="A223" s="9">
         <v>196</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C223" s="11">
+      <c r="C223" s="10">
         <v>4630</v>
       </c>
-      <c r="D223" s="11" t="s">
+      <c r="D223" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E223" s="36" t="s">
+      <c r="E223" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F223" s="12"/>
-    </row>
-    <row r="224" customHeight="1" spans="1:6">
-      <c r="A224" s="10">
+      <c r="F223" s="11"/>
+    </row>
+    <row r="224" spans="1:6" ht="15" customHeight="1">
+      <c r="A224" s="9">
         <v>197</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C224" s="11">
+      <c r="C224" s="10">
         <v>4622</v>
       </c>
-      <c r="D224" s="11" t="s">
+      <c r="D224" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E224" s="36" t="s">
+      <c r="E224" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F224" s="12"/>
-    </row>
-    <row r="225" customHeight="1" spans="1:6">
-      <c r="A225" s="10">
+      <c r="F224" s="11"/>
+    </row>
+    <row r="225" spans="1:6" ht="15" customHeight="1">
+      <c r="A225" s="9">
         <v>198</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C225" s="11">
+      <c r="C225" s="10">
         <v>4623</v>
       </c>
-      <c r="D225" s="11" t="s">
+      <c r="D225" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E225" s="36" t="s">
+      <c r="E225" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F225" s="12"/>
-    </row>
-    <row r="226" customHeight="1" spans="1:6">
-      <c r="A226" s="10">
+      <c r="F225" s="11"/>
+    </row>
+    <row r="226" spans="1:6" ht="15" customHeight="1">
+      <c r="A226" s="9">
         <v>199</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C226" s="11">
+      <c r="C226" s="10">
         <v>4181</v>
       </c>
-      <c r="D226" s="11" t="s">
+      <c r="D226" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E226" s="36" t="s">
+      <c r="E226" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F226" s="12"/>
-    </row>
-    <row r="227" customHeight="1" spans="1:6">
-      <c r="A227" s="10">
+      <c r="F226" s="11"/>
+    </row>
+    <row r="227" spans="1:6" ht="15" customHeight="1">
+      <c r="A227" s="9">
         <v>200</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C227" s="11">
+      <c r="C227" s="10">
         <v>4412</v>
       </c>
-      <c r="D227" s="11" t="s">
+      <c r="D227" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E227" s="36" t="s">
+      <c r="E227" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F227" s="12"/>
-    </row>
-    <row r="228" customHeight="1" spans="1:6">
-      <c r="A228" s="10">
+      <c r="F227" s="11"/>
+    </row>
+    <row r="228" spans="1:6" ht="15" customHeight="1">
+      <c r="A228" s="9">
         <v>201</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C228" s="11">
+      <c r="C228" s="10">
         <v>4180</v>
       </c>
-      <c r="D228" s="11" t="s">
+      <c r="D228" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E228" s="36" t="s">
+      <c r="E228" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F228" s="12"/>
-    </row>
-    <row r="229" customHeight="1" spans="1:6">
-      <c r="A229" s="10">
+      <c r="F228" s="11"/>
+    </row>
+    <row r="229" spans="1:6" ht="15" customHeight="1">
+      <c r="A229" s="9">
         <v>202</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C229" s="11">
+      <c r="C229" s="10">
         <v>4620</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="D229" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E229" s="36" t="s">
+      <c r="E229" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F229" s="12"/>
-    </row>
-    <row r="230" customHeight="1" spans="1:6">
-      <c r="A230" s="10">
+      <c r="F229" s="11"/>
+    </row>
+    <row r="230" spans="1:6" ht="15" customHeight="1">
+      <c r="A230" s="9">
         <v>203</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C230" s="11">
+      <c r="C230" s="10">
         <v>2423</v>
       </c>
-      <c r="D230" s="11" t="s">
+      <c r="D230" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E230" s="36" t="s">
+      <c r="E230" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F230" s="12"/>
-    </row>
-    <row r="231" customHeight="1" spans="1:6">
-      <c r="A231" s="10">
+      <c r="F230" s="11"/>
+    </row>
+    <row r="231" spans="1:6" ht="15" customHeight="1">
+      <c r="A231" s="9">
         <v>204</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C231" s="11">
+      <c r="C231" s="10">
         <v>2060</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E231" s="36" t="s">
+      <c r="E231" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F231" s="12"/>
-    </row>
-    <row r="232" customHeight="1" spans="1:6">
-      <c r="A232" s="10">
+      <c r="F231" s="11"/>
+    </row>
+    <row r="232" spans="1:6" ht="15" customHeight="1">
+      <c r="A232" s="9">
         <v>205</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C232" s="11">
+      <c r="C232" s="10">
         <v>3122</v>
       </c>
-      <c r="D232" s="11" t="s">
+      <c r="D232" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E232" s="36" t="s">
+      <c r="E232" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F232" s="12"/>
-    </row>
-    <row r="233" customHeight="1" spans="1:6">
-      <c r="A233" s="10">
+      <c r="F232" s="11"/>
+    </row>
+    <row r="233" spans="1:6" ht="15" customHeight="1">
+      <c r="A233" s="9">
         <v>206</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C233" s="11">
+      <c r="C233" s="10">
         <v>2022</v>
       </c>
-      <c r="D233" s="11" t="s">
+      <c r="D233" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E233" s="36" t="s">
+      <c r="E233" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F233" s="12"/>
-    </row>
-    <row r="234" customHeight="1" spans="1:6">
-      <c r="A234" s="10">
+      <c r="F233" s="11"/>
+    </row>
+    <row r="234" spans="1:6" ht="15" customHeight="1">
+      <c r="A234" s="9">
         <v>207</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C234" s="11">
+      <c r="C234" s="10">
         <v>3113</v>
       </c>
-      <c r="D234" s="11" t="s">
+      <c r="D234" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E234" s="36" t="s">
+      <c r="E234" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F234" s="12"/>
-    </row>
-    <row r="235" customHeight="1" spans="1:6">
-      <c r="A235" s="10">
+      <c r="F234" s="11"/>
+    </row>
+    <row r="235" spans="1:6" ht="15" customHeight="1">
+      <c r="A235" s="9">
         <v>208</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C235" s="11">
+      <c r="C235" s="10">
         <v>3178</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D235" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E235" s="36" t="s">
+      <c r="E235" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F235" s="12"/>
-    </row>
-    <row r="236" customHeight="1" spans="1:6">
-      <c r="A236" s="10">
+      <c r="F235" s="11"/>
+    </row>
+    <row r="236" spans="1:6" ht="15" customHeight="1">
+      <c r="A236" s="9">
         <v>209</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C236" s="11">
+      <c r="C236" s="10">
         <v>3123</v>
       </c>
-      <c r="D236" s="11" t="s">
+      <c r="D236" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E236" s="36" t="s">
+      <c r="E236" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F236" s="12"/>
-    </row>
-    <row r="237" customHeight="1" spans="1:6">
-      <c r="A237" s="10">
+      <c r="F236" s="11"/>
+    </row>
+    <row r="237" spans="1:6" ht="15" customHeight="1">
+      <c r="A237" s="9">
         <v>210</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C237" s="11">
+      <c r="C237" s="10">
         <v>4609</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E237" s="36" t="s">
+      <c r="E237" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F237" s="12"/>
-    </row>
-    <row r="238" customHeight="1" spans="1:6">
-      <c r="A238" s="10">
+      <c r="F237" s="11"/>
+    </row>
+    <row r="238" spans="1:6" ht="15" customHeight="1">
+      <c r="A238" s="9">
         <v>211</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C238" s="11">
+      <c r="C238" s="10">
         <v>4603</v>
       </c>
-      <c r="D238" s="11" t="s">
+      <c r="D238" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E238" s="36" t="s">
+      <c r="E238" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F238" s="12"/>
-    </row>
-    <row r="239" customHeight="1" spans="1:6">
-      <c r="A239" s="10">
+      <c r="F238" s="11"/>
+    </row>
+    <row r="239" spans="1:6" ht="15" customHeight="1">
+      <c r="A239" s="9">
         <v>212</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C239" s="11">
+      <c r="C239" s="10">
         <v>4607</v>
       </c>
-      <c r="D239" s="11" t="s">
+      <c r="D239" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E239" s="36" t="s">
+      <c r="E239" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F239" s="12"/>
-    </row>
-    <row r="240" customHeight="1" spans="1:6">
-      <c r="A240" s="10">
+      <c r="F239" s="11"/>
+    </row>
+    <row r="240" spans="1:6" ht="15" customHeight="1">
+      <c r="A240" s="9">
         <v>213</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C240" s="11">
+      <c r="C240" s="10">
         <v>4606</v>
       </c>
-      <c r="D240" s="11" t="s">
+      <c r="D240" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E240" s="36" t="s">
+      <c r="E240" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F240" s="12"/>
-    </row>
-    <row r="241" customHeight="1" spans="1:6">
-      <c r="A241" s="10">
+      <c r="F240" s="11"/>
+    </row>
+    <row r="241" spans="1:6" ht="15" customHeight="1">
+      <c r="A241" s="9">
         <v>214</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C241" s="11">
+      <c r="C241" s="10">
         <v>4610</v>
       </c>
-      <c r="D241" s="11" t="s">
+      <c r="D241" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E241" s="36" t="s">
+      <c r="E241" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F241" s="12"/>
-    </row>
-    <row r="242" customHeight="1" spans="1:6">
-      <c r="A242" s="10">
+      <c r="F241" s="11"/>
+    </row>
+    <row r="242" spans="1:6" ht="15" customHeight="1">
+      <c r="A242" s="9">
         <v>215</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C242" s="11">
+      <c r="C242" s="10">
         <v>4601</v>
       </c>
-      <c r="D242" s="11" t="s">
+      <c r="D242" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E242" s="36" t="s">
+      <c r="E242" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F242" s="12"/>
-    </row>
-    <row r="243" customHeight="1" spans="1:6">
-      <c r="A243" s="10">
+      <c r="F242" s="11"/>
+    </row>
+    <row r="243" spans="1:6" ht="15" customHeight="1">
+      <c r="A243" s="9">
         <v>216</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B243" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C243" s="11">
+      <c r="C243" s="10">
         <v>4618</v>
       </c>
-      <c r="D243" s="11" t="s">
+      <c r="D243" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E243" s="36" t="s">
+      <c r="E243" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F243" s="12"/>
-    </row>
-    <row r="244" customHeight="1" spans="1:6">
-      <c r="A244" s="10">
+      <c r="F243" s="11"/>
+    </row>
+    <row r="244" spans="1:6" ht="15" customHeight="1">
+      <c r="A244" s="9">
         <v>217</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B244" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C244" s="11">
+      <c r="C244" s="10">
         <v>1615</v>
       </c>
-      <c r="D244" s="11" t="s">
+      <c r="D244" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E244" s="36" t="s">
+      <c r="E244" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F244" s="12"/>
-    </row>
-    <row r="245" customHeight="1" spans="1:6">
-      <c r="A245" s="10">
+      <c r="F244" s="11"/>
+    </row>
+    <row r="245" spans="1:6" ht="15" customHeight="1">
+      <c r="A245" s="9">
         <v>218</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B245" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C245" s="11">
+      <c r="C245" s="10">
         <v>2128</v>
       </c>
-      <c r="D245" s="11" t="s">
+      <c r="D245" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E245" s="36" t="s">
+      <c r="E245" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F245" s="12"/>
-    </row>
-    <row r="246" customHeight="1" spans="1:6">
-      <c r="A246" s="10">
+      <c r="F245" s="11"/>
+    </row>
+    <row r="246" spans="1:6" ht="15" customHeight="1">
+      <c r="A246" s="9">
         <v>219</v>
       </c>
-      <c r="B246" s="11" t="s">
+      <c r="B246" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C246" s="11">
+      <c r="C246" s="10">
         <v>1886</v>
       </c>
-      <c r="D246" s="11" t="s">
+      <c r="D246" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E246" s="36" t="s">
+      <c r="E246" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F246" s="12"/>
-    </row>
-    <row r="247" customHeight="1" spans="1:6">
-      <c r="A247" s="10">
+      <c r="F246" s="11"/>
+    </row>
+    <row r="247" spans="1:6" ht="15" customHeight="1">
+      <c r="A247" s="9">
         <v>220</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B247" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C247" s="11">
+      <c r="C247" s="10">
         <v>4413</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E247" s="36" t="s">
+      <c r="E247" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F247" s="12"/>
-    </row>
-    <row r="248" customHeight="1" spans="1:6">
-      <c r="A248" s="10">
+      <c r="F247" s="11"/>
+    </row>
+    <row r="248" spans="1:6" ht="15" customHeight="1">
+      <c r="A248" s="9">
         <v>221</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B248" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C248" s="11">
+      <c r="C248" s="10">
         <v>4488</v>
       </c>
-      <c r="D248" s="11" t="s">
+      <c r="D248" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E248" s="36" t="s">
+      <c r="E248" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F248" s="12"/>
-    </row>
-    <row r="249" customHeight="1" spans="1:6">
-      <c r="A249" s="10">
+      <c r="F248" s="11"/>
+    </row>
+    <row r="249" spans="1:6" ht="15" customHeight="1">
+      <c r="A249" s="9">
         <v>222</v>
       </c>
-      <c r="B249" s="11" t="s">
+      <c r="B249" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C249" s="11">
+      <c r="C249" s="10">
         <v>4600</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="D249" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E249" s="36" t="s">
+      <c r="E249" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F249" s="12"/>
-    </row>
-    <row r="250" customHeight="1" spans="1:6">
-      <c r="A250" s="10">
+      <c r="F249" s="11"/>
+    </row>
+    <row r="250" spans="1:6" ht="15" customHeight="1">
+      <c r="A250" s="9">
         <v>223</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B250" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C250" s="11">
+      <c r="C250" s="10">
         <v>4452</v>
       </c>
-      <c r="D250" s="11" t="s">
+      <c r="D250" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E250" s="36" t="s">
+      <c r="E250" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F250" s="12"/>
-    </row>
-    <row r="251" customHeight="1" spans="1:6">
-      <c r="A251" s="10">
+      <c r="F250" s="11"/>
+    </row>
+    <row r="251" spans="1:6" ht="15" customHeight="1">
+      <c r="A251" s="9">
         <v>224</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B251" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C251" s="11">
+      <c r="C251" s="10">
         <v>3112</v>
       </c>
-      <c r="D251" s="11" t="s">
+      <c r="D251" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="36" t="s">
+      <c r="E251" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F251" s="12"/>
-    </row>
-    <row r="252" customHeight="1" spans="1:6">
-      <c r="A252" s="10">
+      <c r="F251" s="11"/>
+    </row>
+    <row r="252" spans="1:6" ht="15" customHeight="1">
+      <c r="A252" s="9">
         <v>225</v>
       </c>
-      <c r="B252" s="11" t="s">
+      <c r="B252" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C252" s="11">
+      <c r="C252" s="10">
         <v>4605</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E252" s="36" t="s">
+      <c r="E252" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F252" s="12"/>
-    </row>
-    <row r="253" customHeight="1" spans="1:6">
-      <c r="A253" s="10">
+      <c r="F252" s="11"/>
+    </row>
+    <row r="253" spans="1:6" ht="15" customHeight="1">
+      <c r="A253" s="9">
         <v>226</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B253" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C253" s="11">
+      <c r="C253" s="10">
         <v>4627</v>
       </c>
-      <c r="D253" s="11" t="s">
+      <c r="D253" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E253" s="36" t="s">
+      <c r="E253" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="F253" s="12"/>
-    </row>
-    <row r="254" customHeight="1" spans="1:6">
-      <c r="A254" s="10">
+      <c r="F253" s="11"/>
+    </row>
+    <row r="254" spans="1:6" ht="15" customHeight="1">
+      <c r="A254" s="9">
         <v>227</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C254" s="11">
+      <c r="C254" s="10">
         <v>1945</v>
       </c>
-      <c r="D254" s="11" t="s">
+      <c r="D254" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E254" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F254" s="12"/>
-    </row>
-    <row r="255" customHeight="1" spans="1:6">
-      <c r="A255" s="10">
+      <c r="E254" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="11"/>
+    </row>
+    <row r="255" spans="1:6" ht="15" customHeight="1">
+      <c r="A255" s="9">
         <v>228</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C255" s="11">
+      <c r="C255" s="10">
         <v>1619</v>
       </c>
-      <c r="D255" s="11" t="s">
+      <c r="D255" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E255" s="11" t="s">
+      <c r="E255" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F255" s="12"/>
-    </row>
-    <row r="256" customHeight="1" spans="1:6">
-      <c r="A256" s="10">
+      <c r="F255" s="11"/>
+    </row>
+    <row r="256" spans="1:6" ht="15" customHeight="1">
+      <c r="A256" s="9">
         <v>229</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C256" s="11">
+      <c r="C256" s="10">
         <v>3724</v>
       </c>
-      <c r="D256" s="11" t="s">
+      <c r="D256" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E256" s="11" t="s">
+      <c r="E256" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F256" s="12"/>
-    </row>
-    <row r="257" customHeight="1" spans="1:6">
-      <c r="A257" s="10">
+      <c r="F256" s="11"/>
+    </row>
+    <row r="257" spans="1:6" ht="15" customHeight="1">
+      <c r="A257" s="9">
         <v>230</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B257" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C257" s="11">
+      <c r="C257" s="10">
         <v>3062</v>
       </c>
-      <c r="D257" s="11" t="s">
+      <c r="D257" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E257" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F257" s="12"/>
-    </row>
-    <row r="258" customHeight="1" spans="1:6">
-      <c r="A258" s="10">
+      <c r="E257" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" s="11"/>
+    </row>
+    <row r="258" spans="1:6" ht="15" customHeight="1">
+      <c r="A258" s="9">
         <v>231</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C258" s="11">
+      <c r="C258" s="10">
         <v>3269</v>
       </c>
-      <c r="D258" s="11" t="s">
+      <c r="D258" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E258" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F258" s="12"/>
-    </row>
-    <row r="259" customHeight="1" spans="1:6">
-      <c r="A259" s="10">
+      <c r="E258" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="11"/>
+    </row>
+    <row r="259" spans="1:6" ht="15" customHeight="1">
+      <c r="A259" s="9">
         <v>232</v>
       </c>
-      <c r="B259" s="11" t="s">
+      <c r="B259" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C259" s="11">
+      <c r="C259" s="10">
         <v>1805</v>
       </c>
-      <c r="D259" s="11" t="s">
+      <c r="D259" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E259" s="11" t="s">
+      <c r="E259" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F259" s="12"/>
-    </row>
-    <row r="260" customHeight="1" spans="1:6">
-      <c r="A260" s="10">
+      <c r="F259" s="11"/>
+    </row>
+    <row r="260" spans="1:6" ht="15" customHeight="1">
+      <c r="A260" s="9">
         <v>233</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B260" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C260" s="11">
+      <c r="C260" s="10">
         <v>4401</v>
       </c>
-      <c r="D260" s="11" t="s">
+      <c r="D260" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E260" s="11" t="s">
+      <c r="E260" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F260" s="12"/>
-    </row>
-    <row r="261" customHeight="1" spans="1:6">
-      <c r="A261" s="43"/>
-      <c r="B261" s="44"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="44"/>
-      <c r="E261" s="44"/>
-      <c r="F261" s="45"/>
-    </row>
-    <row r="262" customHeight="1" spans="1:6">
-      <c r="A262" s="43"/>
-      <c r="B262" s="44"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="44"/>
-      <c r="E262" s="44"/>
-      <c r="F262" s="45"/>
+      <c r="F260" s="11"/>
+    </row>
+    <row r="261" spans="1:6" ht="15" customHeight="1">
+      <c r="A261" s="33"/>
+      <c r="B261" s="34"/>
+      <c r="C261" s="34"/>
+      <c r="D261" s="34"/>
+      <c r="E261" s="34"/>
+      <c r="F261" s="35"/>
+    </row>
+    <row r="262" spans="1:6" ht="15" customHeight="1">
+      <c r="A262" s="33"/>
+      <c r="B262" s="34"/>
+      <c r="C262" s="34"/>
+      <c r="D262" s="34"/>
+      <c r="E262" s="34"/>
+      <c r="F262" s="35"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F264" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
   <mergeCells count="17">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="K7:M7"/>
@@ -7397,17 +6777,485 @@
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="K15:M15"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED5E073-02C9-4FCF-924D-10768CF68D80}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/manpower_log/HC02.xlsx
+++ b/manpower_log/HC02.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AFE4A-3383-434B-848C-F6DEB38E902D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716D0F78-7AE7-4D46-8C8D-D4CE04109203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="816" windowWidth="13836" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$164</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$D$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="224">
   <si>
     <t xml:space="preserve">    HC02</t>
   </si>
@@ -137,9 +135,6 @@
     <t>pakistan</t>
   </si>
   <si>
-    <t>Arif Ali, Tiwari, Raja &amp; Adeel</t>
-  </si>
-  <si>
     <t>Jai Shankar Tiwari</t>
   </si>
   <si>
@@ -308,6 +303,9 @@
     <t>Shabbir Ahmed</t>
   </si>
   <si>
+    <t xml:space="preserve">Muhammad Shuaib </t>
+  </si>
+  <si>
     <t>Emon Gazi</t>
   </si>
   <si>
@@ -377,15 +375,9 @@
     <t>Said El Ahrach</t>
   </si>
   <si>
-    <t>Adullah Badou</t>
-  </si>
-  <si>
     <t>Nour Eddine</t>
   </si>
   <si>
-    <t>Imad Zahid</t>
-  </si>
-  <si>
     <t>Ali Sanjar</t>
   </si>
   <si>
@@ -416,12 +408,39 @@
     <t>MUHAMMAD JAMIL</t>
   </si>
   <si>
+    <t>Mohamed Tabibi</t>
+  </si>
+  <si>
+    <t>Mohamed Taoussat</t>
+  </si>
+  <si>
+    <t>Lahcen Zakry</t>
+  </si>
+  <si>
+    <t>Said Dendoum</t>
+  </si>
+  <si>
+    <t>Zakir Hussain</t>
+  </si>
+  <si>
+    <t>Sobhit Sah</t>
+  </si>
+  <si>
+    <t>Idir Ait Ba</t>
+  </si>
+  <si>
+    <t>Abdellah Mabrouk</t>
+  </si>
+  <si>
+    <t>Mustapha Ait Ba</t>
+  </si>
+  <si>
+    <t>Abdel Ghani Ouhazza</t>
+  </si>
+  <si>
     <t>Hasan Ali</t>
   </si>
   <si>
-    <t>HC03</t>
-  </si>
-  <si>
     <t>Kosh Kami</t>
   </si>
   <si>
@@ -485,12 +504,6 @@
     <t>Mohammad Asif</t>
   </si>
   <si>
-    <t>Saed Abdelkader</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
     <t>Mohammad Arif</t>
   </si>
   <si>
@@ -617,9 +630,6 @@
     <t>Rauf Manjoor</t>
   </si>
   <si>
-    <t xml:space="preserve">Waqar Azeem </t>
-  </si>
-  <si>
     <t>Taj Mohammad</t>
   </si>
   <si>
@@ -692,83 +702,17 @@
     <t>Gypsum (Store)</t>
   </si>
   <si>
-    <t>Shuaib</t>
-  </si>
-  <si>
-    <t>Shabul Islam</t>
-  </si>
-  <si>
-    <t>Shamsul Islam (leader)</t>
-  </si>
-  <si>
-    <t>Ayeub Ali</t>
-  </si>
-  <si>
-    <t>Juber Ahmad (leader)</t>
-  </si>
-  <si>
-    <t>Insaf Ali</t>
-  </si>
-  <si>
-    <t>Muhammad Shahid</t>
-  </si>
-  <si>
-    <t>Samir Khan</t>
-  </si>
-  <si>
-    <t>Dilip Mandal Khatbe</t>
-  </si>
-  <si>
-    <t>Shiv Ratan Mahato</t>
-  </si>
-  <si>
-    <t>Mohammad Suzon</t>
-  </si>
-  <si>
-    <t>Anil Kumar Mandal</t>
-  </si>
-  <si>
-    <t>Muhammad Farooq</t>
-  </si>
-  <si>
-    <t>Alim Tamizuddin</t>
-  </si>
-  <si>
-    <t>Kashem Miah</t>
-  </si>
-  <si>
-    <t>Mizan Sheikh - Scaffolding</t>
-  </si>
-  <si>
-    <t>Billal Late - Scaffolding</t>
-  </si>
-  <si>
-    <t>MD Sohidul Islam</t>
-  </si>
-  <si>
-    <t>Rifat Hosen</t>
-  </si>
-  <si>
-    <t>Roshidul Islam</t>
-  </si>
-  <si>
-    <t>Sobuj Mia</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>HC-2</t>
-  </si>
-  <si>
-    <t>HC-3</t>
+    <t>Arif Ali, Tiwari, Raja &amp; Adeel,shiraz</t>
+  </si>
+  <si>
+    <t>Shirazuddin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,38 +721,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="3" tint="0.79964598529007846"/>
       <name val="Algerian"/>
-      <family val="5"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,66 +753,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -929,12 +829,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1130,175 +1030,108 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1310,13 +1143,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1594,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1616,18 +1449,17 @@
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
     <col min="14" max="14" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1703,7 +1535,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1721,7 +1553,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1742,15 +1574,15 @@
         <v>8</v>
       </c>
       <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1773,13 +1605,13 @@
       <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1802,26 +1634,26 @@
       <c r="J9" s="17">
         <v>1</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
+      <c r="B10" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="C10" s="6">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="8"/>
@@ -1831,114 +1663,114 @@
       <c r="J10" s="17">
         <v>0</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="6">
-        <v>4581</v>
+        <v>2980</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="8"/>
       <c r="I11" s="15" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="17">
-        <v>4</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
-        <v>2941</v>
+        <v>4581</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8"/>
       <c r="I12" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="17">
         <v>3</v>
       </c>
-      <c r="K12" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="K12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6">
-        <v>4584</v>
+        <v>2941</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F13" s="8"/>
       <c r="I13" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="17">
         <v>0</v>
       </c>
-      <c r="K13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="K13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6">
-        <v>1595</v>
+        <v>4584</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F14" s="8"/>
       <c r="I14" s="15" t="s">
@@ -1947,85 +1779,85 @@
       <c r="J14" s="17">
         <v>1</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="L14" s="33"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6">
-        <v>3005</v>
+        <v>1595</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8"/>
       <c r="I15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="17">
         <v>0</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="K15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6">
-        <v>3774</v>
+        <v>3005</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="8"/>
       <c r="I16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="17">
         <v>1</v>
       </c>
-      <c r="K16" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="K16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>49</v>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="6">
-        <v>2581</v>
+        <v>3774</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="8"/>
       <c r="I17" s="15" t="s">
@@ -2034,96 +1866,96 @@
       <c r="J17" s="17">
         <v>2</v>
       </c>
-      <c r="K17" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="K17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6">
-        <v>2081</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>53</v>
+        <v>2581</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F18" s="8"/>
       <c r="I18" s="15"/>
       <c r="J18" s="18">
         <f>SUM(J7:J17)</f>
-        <v>14</v>
-      </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6">
-        <v>1758</v>
+        <v>2081</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="I19" s="35"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6">
-        <v>2360</v>
+        <v>1758</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="I20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="I20" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="55"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1">
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="6">
-        <v>2898</v>
+        <v>2360</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -2131,34 +1963,34 @@
       <c r="F21" s="8"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="L21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C22" s="6">
-        <v>2315</v>
+        <v>2898</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F22" s="8"/>
       <c r="I22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="17">
         <v>22</v>
@@ -2170,25 +2002,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6">
-        <v>2743</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>65</v>
+        <v>2315</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F23" s="8"/>
       <c r="I23" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="17">
         <v>5</v>
@@ -2200,55 +2032,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="10">
-        <v>1</v>
-      </c>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2743</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="I24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="11">
-        <v>2350</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="I24" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="J24" s="17">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K24" s="22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L24" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="11">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="12"/>
       <c r="I25" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25" s="17">
         <v>4</v>
@@ -2260,25 +2092,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="11">
-        <v>2368</v>
+        <v>2352</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="12"/>
       <c r="I26" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="17">
         <v>20</v>
@@ -2290,55 +2122,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" s="11">
-        <v>3083</v>
+        <v>2368</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F27" s="12"/>
       <c r="I27" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" s="17">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="22">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" s="11">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="12"/>
       <c r="I28" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J28" s="17">
         <v>1</v>
@@ -2350,25 +2182,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="11">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="12"/>
       <c r="I29" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J29" s="17">
         <v>1</v>
@@ -2380,25 +2212,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" s="11">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="12"/>
       <c r="I30" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J30" s="22">
         <v>4</v>
@@ -2410,25 +2242,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="31" spans="1:13" ht="15" customHeight="1">
       <c r="A31" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" s="11">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="12"/>
       <c r="I31" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="22">
         <v>1</v>
@@ -2440,25 +2272,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" thickBot="1">
+    <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C32" s="11">
-        <v>2362</v>
+        <v>3087</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F32" s="12"/>
       <c r="I32" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="22">
         <v>1</v>
@@ -2470,24 +2302,28 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="10"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="10">
+        <v>9</v>
+      </c>
       <c r="B33" s="11" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="C33" s="11">
-        <v>2008</v>
+        <v>2362</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="I33" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" s="22">
         <v>1</v>
@@ -2499,18 +2335,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" thickBot="1">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="10">
         <v>10</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="11">
         <v>2076</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>14</v>
@@ -2521,33 +2357,33 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="10">
         <v>11</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="11">
         <v>2048</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="12"/>
       <c r="I35" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J35" s="25">
         <f>SUM(J22:J34)</f>
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K35" s="20">
         <f>SUM(K22:K34)</f>
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L35" s="20">
         <f>SUM(L22:L34)</f>
@@ -2559,13 +2395,13 @@
         <v>12</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="11">
         <v>3139</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>32</v>
@@ -2577,13 +2413,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="11">
         <v>3144</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>32</v>
@@ -2595,16 +2431,16 @@
         <v>14</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="11">
-        <v>3205</v>
+        <v>2008</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F38" s="12"/>
     </row>
@@ -2613,16 +2449,16 @@
         <v>15</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="11">
-        <v>2887</v>
+        <v>3205</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -2631,16 +2467,16 @@
         <v>16</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="11">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="12"/>
     </row>
@@ -2649,16 +2485,16 @@
         <v>17</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="11">
-        <v>2880</v>
+        <v>2886</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" s="12"/>
     </row>
@@ -2667,16 +2503,16 @@
         <v>18</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="11">
-        <v>2874</v>
+        <v>2880</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="12"/>
     </row>
@@ -2685,55 +2521,55 @@
         <v>19</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="11">
-        <v>2890</v>
+        <v>2874</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="12"/>
-      <c r="N43" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="10">
         <v>20</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="13">
-        <v>2891</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2890</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="N44" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="10">
         <v>21</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="13">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="14"/>
     </row>
@@ -2742,16 +2578,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="13">
-        <v>2172</v>
+        <v>2889</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F46" s="14"/>
     </row>
@@ -2760,16 +2596,16 @@
         <v>23</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="13">
-        <v>3065</v>
+        <v>2172</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F47" s="14"/>
     </row>
@@ -2778,16 +2614,16 @@
         <v>24</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="13">
-        <v>3361</v>
+        <v>3065</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F48" s="14"/>
     </row>
@@ -2796,16 +2632,16 @@
         <v>25</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="13">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="14"/>
     </row>
@@ -2814,16 +2650,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="13">
-        <v>2778</v>
+        <v>3362</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F50" s="14"/>
     </row>
@@ -2832,16 +2668,16 @@
         <v>27</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="13">
-        <v>3033</v>
+        <v>2778</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" s="14"/>
     </row>
@@ -2850,16 +2686,16 @@
         <v>28</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="13">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" s="14"/>
     </row>
@@ -2868,16 +2704,16 @@
         <v>29</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="13">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="14"/>
     </row>
@@ -2886,16 +2722,16 @@
         <v>30</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="13">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" s="14"/>
     </row>
@@ -2904,16 +2740,16 @@
         <v>31</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="13">
-        <v>3173</v>
+        <v>3041</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F55" s="14"/>
     </row>
@@ -2922,16 +2758,16 @@
         <v>32</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" s="13">
-        <v>3039</v>
+        <v>3173</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F56" s="14"/>
     </row>
@@ -2940,16 +2776,16 @@
         <v>33</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" s="13">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F57" s="14"/>
     </row>
@@ -2958,103 +2794,103 @@
         <v>34</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="13">
-        <v>3037</v>
+        <v>3042</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="13">
-        <v>3625</v>
+        <v>3037</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="13">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="13">
         <v>3658</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="13">
-        <v>3837</v>
+        <v>3001</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="13">
-        <v>3001</v>
+        <v>2660</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>14</v>
@@ -3063,16 +2899,16 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="13">
-        <v>2660</v>
+        <v>3147</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>14</v>
@@ -3081,16 +2917,16 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="13">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>14</v>
@@ -3099,16 +2935,16 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="13">
-        <v>3148</v>
+        <v>3002</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>14</v>
@@ -3117,16 +2953,16 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="13">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>14</v>
@@ -3135,16 +2971,16 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="13">
-        <v>3000</v>
+        <v>3146</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>14</v>
@@ -3153,16 +2989,16 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" s="13">
-        <v>3146</v>
+        <v>2066</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>14</v>
@@ -3171,1672 +3007,1788 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C70" s="13">
-        <v>2066</v>
+        <v>4851</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C71" s="13">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C72" s="13">
-        <v>4850</v>
+        <v>3040</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" s="10">
-        <v>50</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="11">
-        <v>2165</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="13">
+        <v>4066</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
       <c r="A74" s="10">
-        <v>51</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="11">
-        <v>1894</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="13">
+        <v>4068</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" s="10">
-        <v>52</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="11">
-        <v>2169</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F75" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="13">
+        <v>4495</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1">
       <c r="A76" s="10">
-        <v>53</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="11">
-        <v>1687</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="13">
+        <v>2979</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1">
       <c r="A77" s="10">
+        <v>53</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="13">
+        <v>2962</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1">
+      <c r="A78" s="10">
         <v>54</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B78" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="13">
+        <v>4071</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1">
+      <c r="A79" s="10">
+        <v>55</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C77" s="11">
-        <v>3091</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1">
-      <c r="A78" s="10">
-        <v>55</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="11">
-        <v>3161</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1">
-      <c r="A79" s="10">
-        <v>56</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="11">
-        <v>3092</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F79" s="12"/>
+      <c r="C79" s="13">
+        <v>2326</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
       <c r="A80" s="10">
-        <v>57</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="11">
-        <v>3199</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="13">
+        <v>4212</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
       <c r="A81" s="10">
-        <v>58</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="11">
-        <v>3009</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="13">
+        <v>4703</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1">
       <c r="A82" s="10">
-        <v>59</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="11">
-        <v>3231</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="13">
+        <v>2165</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="11">
-        <v>3106</v>
+        <v>1894</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="A84" s="10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C84" s="11">
-        <v>3102</v>
+        <v>2169</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6" ht="15" customHeight="1">
       <c r="A85" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C85" s="11">
-        <v>3103</v>
+        <v>1687</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1">
       <c r="A86" s="10">
+        <v>62</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="11">
+        <v>3091</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="14"/>
+    </row>
+    <row r="87" spans="1:6" ht="18" customHeight="1">
+      <c r="A87" s="10">
         <v>63</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B87" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" s="11">
+        <v>3161</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6" ht="18" customHeight="1">
+      <c r="A88" s="10">
+        <v>64</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C86" s="11">
-        <v>3108</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1">
-      <c r="A87" s="10">
-        <v>64</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="11">
-        <v>3230</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1">
-      <c r="A88" s="10">
-        <v>65</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="C88" s="11">
-        <v>3156</v>
+        <v>3092</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1">
       <c r="A89" s="10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C89" s="11">
-        <v>3159</v>
+        <v>3199</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="12"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1">
       <c r="A90" s="10">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C90" s="11">
-        <v>1949</v>
+        <v>3009</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="12"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="A91" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C91" s="11">
-        <v>3158</v>
+        <v>3231</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
       <c r="A92" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C92" s="11">
-        <v>2079</v>
+        <v>3106</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1">
       <c r="A93" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C93" s="11">
-        <v>2083</v>
+        <v>3102</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1">
       <c r="A94" s="10">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C94" s="11">
-        <v>3014</v>
+        <v>3103</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1">
       <c r="A95" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C95" s="11">
-        <v>2897</v>
+        <v>3108</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F95" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="A96" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C96" s="11">
-        <v>3070</v>
+        <v>3230</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1">
       <c r="A97" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C97" s="11">
-        <v>3071</v>
+        <v>3156</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="12"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1">
       <c r="A98" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C98" s="11">
-        <v>3073</v>
+        <v>3159</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="12"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1">
       <c r="A99" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C99" s="11">
-        <v>3171</v>
+        <v>1949</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="12"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1">
       <c r="A100" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C100" s="11">
-        <v>2906</v>
+        <v>3158</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F100" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1">
       <c r="A101" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C101" s="11">
-        <v>3016</v>
+        <v>2079</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="12"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1">
       <c r="A102" s="10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C102" s="11">
-        <v>2813</v>
+        <v>2083</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F102" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1">
       <c r="A103" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C103" s="11">
-        <v>2803</v>
+        <v>3014</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F103" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1">
       <c r="A104" s="10">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C104" s="11">
-        <v>2802</v>
+        <v>3070</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1">
       <c r="A105" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C105" s="11">
-        <v>4158</v>
+        <v>3071</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="12"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
       <c r="A106" s="10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C106" s="11">
-        <v>4169</v>
+        <v>3073</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="12"/>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
       <c r="A107" s="10">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C107" s="11">
-        <v>4164</v>
+        <v>3171</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="12"/>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
       <c r="A108" s="10">
-        <v>85</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C108" s="11">
-        <v>4162</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" s="26">
+        <v>2906</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
       <c r="A109" s="10">
-        <v>86</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C109" s="11">
-        <v>4165</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="26">
+        <v>3016</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
       <c r="A110" s="10">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C110" s="11">
-        <v>4166</v>
+        <v>2813</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
       <c r="A111" s="10">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C111" s="11">
-        <v>4157</v>
+        <v>2803</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
       <c r="A112" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C112" s="11">
-        <v>4163</v>
+        <v>2802</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
       <c r="A113" s="10">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C113" s="11">
-        <v>4173</v>
+        <v>4158</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="12"/>
+      <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
       <c r="A114" s="10">
-        <v>91</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C114" s="11">
-        <v>4156</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="26">
+        <v>4169</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1">
       <c r="A115" s="10">
-        <v>92</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C115" s="11">
-        <v>4174</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="26">
+        <v>4164</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1">
       <c r="A116" s="10">
-        <v>93</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C116" s="11">
-        <v>4179</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="26">
+        <v>4162</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1">
       <c r="A117" s="10">
-        <v>94</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C117" s="27">
-        <v>4203</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="26">
+        <v>4165</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1">
       <c r="A118" s="10">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C118" s="27">
-        <v>4205</v>
+        <v>170</v>
+      </c>
+      <c r="C118" s="11">
+        <v>4166</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F118" s="12"/>
+      <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1">
       <c r="A119" s="10">
-        <v>96</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C119" s="27">
-        <v>4206</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="26">
+        <v>4157</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1">
       <c r="A120" s="10">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C120" s="27">
-        <v>4207</v>
+        <v>172</v>
+      </c>
+      <c r="C120" s="11">
+        <v>4163</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="12"/>
+      <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
       <c r="A121" s="10">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C121" s="27">
-        <v>2647</v>
+        <v>173</v>
+      </c>
+      <c r="C121" s="11">
+        <v>4173</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F121" s="12"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
       <c r="A122" s="10">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C122" s="27">
-        <v>3078</v>
+        <v>174</v>
+      </c>
+      <c r="C122" s="11">
+        <v>4156</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="12"/>
+      <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1">
       <c r="A123" s="10">
-        <v>100</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C123" s="27">
-        <v>2088</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" s="26">
+        <v>4174</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1">
       <c r="A124" s="10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C124" s="27">
-        <v>2964</v>
+        <v>176</v>
+      </c>
+      <c r="C124" s="11">
+        <v>4179</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F124" s="12"/>
+      <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1">
       <c r="A125" s="10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C125" s="27">
-        <v>3254</v>
+        <v>4203</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F125" s="12"/>
+      <c r="F125" s="14"/>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1">
       <c r="A126" s="10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C126" s="27">
-        <v>3260</v>
+        <v>4205</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F126" s="12"/>
+      <c r="F126" s="14"/>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1">
       <c r="A127" s="10">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C127" s="27">
-        <v>1896</v>
+        <v>4206</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F127" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F127" s="14"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
       <c r="A128" s="10">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C128" s="27">
-        <v>1916</v>
+        <v>4207</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F128" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1">
       <c r="A129" s="10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C129" s="27">
-        <v>2864</v>
+        <v>2647</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1">
       <c r="A130" s="10">
-        <v>107</v>
-      </c>
-      <c r="B130" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="12">
-        <v>3098</v>
+        <v>106</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="27">
+        <v>3078</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F130" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F130" s="14"/>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1">
       <c r="A131" s="10">
-        <v>108</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C131" s="12">
-        <v>4785</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F131" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" s="28">
+        <v>2088</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="14"/>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1">
       <c r="A132" s="10">
-        <v>109</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C132" s="12">
-        <v>4786</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F132" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132" s="28">
+        <v>2964</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="14"/>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1">
       <c r="A133" s="10">
-        <v>110</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C133" s="12">
-        <v>4787</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F133" s="12"/>
+        <v>109</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="28">
+        <v>3254</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="14"/>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1">
       <c r="A134" s="10">
-        <v>111</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C134" s="12">
-        <v>4788</v>
+        <v>110</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" s="27">
+        <v>3260</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F134" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F134" s="14"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1">
       <c r="A135" s="10">
-        <v>112</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C135" s="12">
-        <v>4789</v>
+        <v>111</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C135" s="27">
+        <v>1896</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F135" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F135" s="14"/>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1">
       <c r="A136" s="10">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C136" s="29">
-        <v>4812</v>
+        <v>188</v>
+      </c>
+      <c r="C136" s="27">
+        <v>1916</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F136" s="14"/>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1">
       <c r="A137" s="10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C137" s="29">
-        <v>4811</v>
+        <v>189</v>
+      </c>
+      <c r="C137" s="27">
+        <v>2864</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="F137" s="14"/>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1">
       <c r="A138" s="10">
-        <v>115</v>
-      </c>
-      <c r="B138" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C138" s="30">
-        <v>2220</v>
-      </c>
-      <c r="D138" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C138" s="12">
+        <v>3098</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1">
       <c r="A139" s="10">
-        <v>116</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C139" s="11">
-        <v>2983</v>
+        <v>115</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" s="12">
+        <v>4785</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1">
       <c r="A140" s="10">
-        <v>117</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C140" s="11">
-        <v>4160</v>
+        <v>116</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" s="12">
+        <v>4786</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F140" s="14"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1">
       <c r="A141" s="10">
-        <v>118</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" s="29">
-        <v>4780</v>
+        <v>117</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C141" s="12">
+        <v>4787</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F141" s="14"/>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1">
       <c r="A142" s="10">
-        <v>119</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C142" s="29">
-        <v>4558</v>
+        <v>118</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142" s="12">
+        <v>4788</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F142" s="14"/>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1">
       <c r="A143" s="10">
-        <v>120</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C143" s="29">
-        <v>4570</v>
+        <v>119</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" s="12">
+        <v>4789</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F143" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1">
       <c r="A144" s="10">
-        <v>121</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C144" s="29">
-        <v>4771</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" s="30">
+        <v>4812</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="14"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1">
       <c r="A145" s="10">
-        <v>122</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C145" s="29">
-        <v>4782</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" s="30">
+        <v>4811</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="14"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1">
       <c r="A146" s="10">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C146" s="29">
-        <v>4783</v>
+        <v>198</v>
+      </c>
+      <c r="C146" s="11">
+        <v>2983</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F146" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1">
       <c r="A147" s="10">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C147" s="29">
-        <v>4790</v>
+        <v>199</v>
+      </c>
+      <c r="C147" s="11">
+        <v>4160</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F147" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1">
       <c r="A148" s="10">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="11">
-        <v>2015</v>
+        <v>200</v>
+      </c>
+      <c r="C148" s="31">
+        <v>4780</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F148" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F148" s="14"/>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1">
       <c r="A149" s="10">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C149" s="11">
-        <v>2997</v>
+        <v>201</v>
+      </c>
+      <c r="C149" s="31">
+        <v>4558</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1">
       <c r="A150" s="10">
-        <v>127</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="11">
-        <v>3100</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F150" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" s="30">
+        <v>4570</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1">
       <c r="A151" s="10">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C151" s="11">
-        <v>2812</v>
+        <v>203</v>
+      </c>
+      <c r="C151" s="31">
+        <v>4771</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F151" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1">
       <c r="A152" s="10">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C152" s="11">
-        <v>2796</v>
+        <v>204</v>
+      </c>
+      <c r="C152" s="31">
+        <v>4782</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F152" s="12"/>
+      <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1">
       <c r="A153" s="10">
-        <v>130</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C153" s="11">
-        <v>2178</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C153" s="30">
+        <v>4783</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1">
       <c r="A154" s="10">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C154" s="11">
-        <v>1945</v>
+        <v>206</v>
+      </c>
+      <c r="C154" s="31">
+        <v>4790</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1">
       <c r="A155" s="10">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C155" s="11">
-        <v>1619</v>
+        <v>2015</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F155" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F155" s="14"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1">
       <c r="A156" s="10">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="C156" s="11">
-        <v>3724</v>
+        <v>2997</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F156" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="F156" s="14"/>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1">
       <c r="A157" s="10">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C157" s="11">
-        <v>3062</v>
+        <v>3100</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F157" s="14"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1">
       <c r="A158" s="10">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C158" s="11">
-        <v>3269</v>
+        <v>2812</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1">
       <c r="A159" s="10">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C159" s="11">
-        <v>1805</v>
+        <v>2796</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F159" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1">
       <c r="A160" s="10">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C160" s="11">
-        <v>4401</v>
+        <v>2178</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F160" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F160" s="14"/>
     </row>
     <row r="161" spans="1:6" ht="15" customHeight="1">
       <c r="A161" s="10">
+        <v>137</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" s="11">
+        <v>1945</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="14"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" customHeight="1">
+      <c r="A162" s="10">
+        <v>138</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C162" s="11">
+        <v>1619</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" s="14"/>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1">
+      <c r="A163" s="10">
         <v>139</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B163" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" s="11">
+        <v>3724</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" s="14"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1">
+      <c r="A164" s="10">
+        <v>140</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C161" s="11">
+      <c r="C164" s="11">
+        <v>3062</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="14"/>
+    </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1">
+      <c r="A165" s="10">
+        <v>141</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C165" s="11">
+        <v>3269</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="14"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1">
+      <c r="A166" s="10">
+        <v>142</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C166" s="11">
+        <v>1805</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F166" s="14"/>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1">
+      <c r="A167" s="10">
+        <v>143</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C167" s="11">
+        <v>4401</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F167" s="14"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1">
+      <c r="A168" s="10">
+        <v>144</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C168" s="11">
         <v>4140</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="12"/>
-    </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1">
-      <c r="A162" s="31"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="33"/>
+      <c r="D168" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F164" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F169" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="15">
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:M17"/>
@@ -4856,470 +4808,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0589CAE3-5B27-496D-9052-17B29662AC8F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="34">
-        <v>1922</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="34">
-        <v>200</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="36">
-        <v>2002</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="36">
-        <v>200</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="34">
-        <v>2158</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="34">
-        <v>200</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1">
-      <c r="A4" s="36">
-        <v>2165</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="36">
-        <v>200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1">
-      <c r="A5" s="34">
-        <v>1687</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="34">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1">
-      <c r="A6" s="34">
-        <v>1758</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="34">
-        <v>200</v>
-      </c>
-      <c r="D6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1">
-      <c r="A7" s="36">
-        <v>1894</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="36">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
-      <c r="A8" s="36">
-        <v>1949</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="36">
-        <v>200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1">
-      <c r="A9" s="36">
-        <v>2079</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="36">
-        <v>200</v>
-      </c>
-      <c r="D9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
-      <c r="A10" s="36">
-        <v>2081</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="36">
-        <v>200</v>
-      </c>
-      <c r="D10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1">
-      <c r="A11" s="36">
-        <v>2083</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="36">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1">
-      <c r="A12" s="34">
-        <v>2076</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="34">
-        <v>200</v>
-      </c>
-      <c r="D12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="34">
-        <v>3157</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="34">
-        <v>200</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="36">
-        <v>2569</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="36">
-        <v>200</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="36">
-        <v>3505</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="36">
-        <v>300</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="36">
-        <v>2173</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="36">
-        <v>200</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1">
-      <c r="A17" s="38">
-        <v>2649</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="34">
-        <v>200</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="34">
-        <v>2738</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="34">
-        <v>200</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1">
-      <c r="A19" s="40">
-        <v>2172</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="34">
-        <v>200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="40">
-        <v>2219</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="34">
-        <v>200</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="34">
-        <v>2286</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="34">
-        <v>200</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="40">
-        <v>2314</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="34">
-        <v>200</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1">
-      <c r="A23" s="42">
-        <v>2317</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="34">
-        <v>200</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1">
-      <c r="A24" s="36">
-        <v>2315</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="36">
-        <v>200</v>
-      </c>
-      <c r="D24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="44">
-        <v>2325</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="36">
-        <v>200</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="36">
-        <v>2335</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="36">
-        <v>200</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1">
-      <c r="A27" s="40">
-        <v>2350</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="34">
-        <v>200</v>
-      </c>
-      <c r="D27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="44">
-        <v>2352</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="36">
-        <v>200</v>
-      </c>
-      <c r="D28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
-      <c r="A29" s="44">
-        <v>2362</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="36">
-        <v>200</v>
-      </c>
-      <c r="D29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="40">
-        <v>2369</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="34">
-        <v>200</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1">
-      <c r="A31" s="44">
-        <v>2368</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="36">
-        <v>200</v>
-      </c>
-      <c r="D31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="D32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="D1:D32" xr:uid="{0589CAE3-5B27-496D-9052-17B29662AC8F}">
-    <filterColumn colId="0">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/manpower_log/HC02.xlsx
+++ b/manpower_log/HC02.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F7EA31-409D-48FF-9B86-D8DFE1ED294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4102ED-3E08-4517-BA0A-5CF2D5BDD870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10764" yWindow="240" windowWidth="10188" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="245">
   <si>
     <t xml:space="preserve">    HC02</t>
   </si>
@@ -206,9 +205,6 @@
     <t>Shahid &amp; Foridul</t>
   </si>
   <si>
-    <t>Mahmoud Bedir</t>
-  </si>
-  <si>
     <t>Painter</t>
   </si>
   <si>
@@ -422,9 +418,6 @@
     <t>Gypsum (Store)</t>
   </si>
   <si>
-    <t>Hasan Ali</t>
-  </si>
-  <si>
     <t>Ashwani Kumar</t>
   </si>
   <si>
@@ -473,6 +466,57 @@
     <t>Mohammad Asif</t>
   </si>
   <si>
+    <t>Md Foysal Ahmed</t>
+  </si>
+  <si>
+    <t>Nesmat</t>
+  </si>
+  <si>
+    <t>Sorhab Abdul Majid Madbar</t>
+  </si>
+  <si>
+    <t>SHAKIL AHMED</t>
+  </si>
+  <si>
+    <t>Alcon</t>
+  </si>
+  <si>
+    <t>MD FOYSAL MIA</t>
+  </si>
+  <si>
+    <t>SHAHABUDDIN SAFIULLA</t>
+  </si>
+  <si>
+    <t>MD JAHIR HOSSAN</t>
+  </si>
+  <si>
+    <t>MD ARIF HOSSAIN</t>
+  </si>
+  <si>
+    <t>MD FARUQ</t>
+  </si>
+  <si>
+    <t>MD ALI HASAN</t>
+  </si>
+  <si>
+    <t>ROVEL MIAH</t>
+  </si>
+  <si>
+    <t>MD NASIR UDDIN</t>
+  </si>
+  <si>
+    <t>MD HASEN MIAH</t>
+  </si>
+  <si>
+    <t>MD MAMUN</t>
+  </si>
+  <si>
+    <t>BIPLOB AHMED</t>
+  </si>
+  <si>
+    <t>MD SUMON MIA</t>
+  </si>
+  <si>
     <t>Mohammad Arif</t>
   </si>
   <si>
@@ -494,12 +538,6 @@
     <t>Sail Khan</t>
   </si>
   <si>
-    <t>Saqib Ali</t>
-  </si>
-  <si>
-    <t>Qaisar Rasheed</t>
-  </si>
-  <si>
     <t>SAJJAD ANWAR</t>
   </si>
   <si>
@@ -635,6 +673,66 @@
     <t>Adnan Shareef</t>
   </si>
   <si>
+    <t>SADDAM HOSSAIN KERAMOT</t>
+  </si>
+  <si>
+    <t>MD ABUL KALAM</t>
+  </si>
+  <si>
+    <t>MEHEDI HASAN</t>
+  </si>
+  <si>
+    <t>MD ALAMIN VUIA</t>
+  </si>
+  <si>
+    <t>MINTU MIAH</t>
+  </si>
+  <si>
+    <t>KHAN JAHAN MIA</t>
+  </si>
+  <si>
+    <t>SAJIB KHAN</t>
+  </si>
+  <si>
+    <t>Md Taiju</t>
+  </si>
+  <si>
+    <t>Md Kutub Uddin</t>
+  </si>
+  <si>
+    <t>Md Shohag</t>
+  </si>
+  <si>
+    <t>Md Toslim Mia</t>
+  </si>
+  <si>
+    <t>Md shamim</t>
+  </si>
+  <si>
+    <t>Md Fakrul Islam</t>
+  </si>
+  <si>
+    <t>MD ABDUL MANNAN</t>
+  </si>
+  <si>
+    <t>MD MASUM MIA</t>
+  </si>
+  <si>
+    <t>MD AL AMIN</t>
+  </si>
+  <si>
+    <t>MD RASEL SHEIKH</t>
+  </si>
+  <si>
+    <t>MD ALAMIN</t>
+  </si>
+  <si>
+    <t>MD AHAD MOLLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD RAJU AHMED </t>
+  </si>
+  <si>
     <t>Bharat kumar sah</t>
   </si>
   <si>
@@ -657,13 +755,28 @@
   </si>
   <si>
     <t>Md Hasruddin</t>
+  </si>
+  <si>
+    <t>Abdullha Mabrouk</t>
+  </si>
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>P/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,14 +849,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +936,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,6 +1228,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,10 +1250,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,6 +1265,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,15 +1283,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,13 +1319,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1408,24 +1579,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N149"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="24.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.77734375" customWidth="1"/>
     <col min="8" max="8" width="5.44140625" customWidth="1"/>
     <col min="9" max="9" width="22.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
@@ -1433,16 +1605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1462,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+    <row r="3" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1480,7 +1652,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1498,7 +1670,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1516,7 +1688,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1534,7 +1706,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1552,7 +1724,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1575,13 +1747,13 @@
       <c r="J8" s="19">
         <v>3</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1604,13 +1776,13 @@
       <c r="J9" s="20">
         <v>1</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1633,13 +1805,13 @@
       <c r="J10" s="20">
         <v>1</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1">
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1662,13 +1834,13 @@
       <c r="J11" s="20">
         <v>0</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1">
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1691,13 +1863,13 @@
       <c r="J12" s="20">
         <v>5</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1">
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1720,13 +1892,13 @@
       <c r="J13" s="20">
         <v>3</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1">
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1749,13 +1921,13 @@
       <c r="J14" s="20">
         <v>0</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1778,13 +1950,13 @@
       <c r="J15" s="20">
         <v>1</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1807,13 +1979,13 @@
       <c r="J16" s="20">
         <v>0</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1836,13 +2008,13 @@
       <c r="J17" s="20">
         <v>1</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1">
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1865,13 +2037,13 @@
       <c r="J18" s="20">
         <v>1</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1894,24 +2066,24 @@
       <c r="J19" s="20">
         <v>2</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6">
-        <v>2360</v>
+        <v>2898</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>9</v>
@@ -1922,105 +2094,106 @@
         <f>SUM(J8:J19)</f>
         <v>18</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1">
+    <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2315</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="6">
-        <v>2898</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1">
+      <c r="I21" s="45"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C22" s="6">
-        <v>2315</v>
-      </c>
-      <c r="D22" s="11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="I22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="I22" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="6">
-        <v>1861</v>
+        <v>2743</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="F23" s="8"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="L23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2743</v>
-      </c>
-      <c r="D24" s="7" t="s">
+    </row>
+    <row r="24" spans="1:13" ht="15" hidden="1" customHeight="1">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2350</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="E24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="14"/>
       <c r="I24" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" s="20">
+        <f>SUM(L24,K24)</f>
         <v>18</v>
       </c>
       <c r="K24" s="25">
@@ -2030,25 +2203,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
+    <row r="25" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="13">
-        <v>2350</v>
+        <v>3084</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F25" s="14"/>
       <c r="I25" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" s="20">
         <v>3</v>
@@ -2060,25 +2233,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
+    <row r="26" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="13">
-        <v>3084</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>68</v>
+        <v>2362</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" s="14"/>
       <c r="I26" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J26" s="20">
         <v>26</v>
@@ -2090,25 +2263,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1">
+    <row r="27" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" s="13">
-        <v>2362</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>68</v>
+        <v>2368</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F27" s="14"/>
       <c r="I27" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J27" s="20">
         <v>1</v>
@@ -2120,85 +2293,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1">
+    <row r="28" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="13">
-        <v>2368</v>
+        <v>3085</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F28" s="14"/>
       <c r="I28" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J28" s="20">
-        <v>17</v>
+        <f>SUM(L28,K28)</f>
+        <v>32</v>
       </c>
       <c r="K28" s="25">
         <v>17</v>
       </c>
       <c r="L28" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="13">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="14"/>
       <c r="I29" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="20">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K29" s="25">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L29" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" s="13">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="14"/>
       <c r="I30" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J30" s="20">
         <v>1</v>
@@ -2210,25 +2384,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1">
+    <row r="31" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="13">
-        <v>3087</v>
+        <v>2076</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F31" s="14"/>
       <c r="I31" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="20">
         <v>1</v>
@@ -2240,27 +2414,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1">
+    <row r="32" spans="1:13" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="13">
-        <v>2076</v>
+        <v>2048</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F32" s="14"/>
       <c r="I32" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J32" s="25">
+        <v>83</v>
+      </c>
+      <c r="J32" s="20">
         <v>4</v>
       </c>
       <c r="K32" s="25">
@@ -2270,27 +2444,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1">
+    <row r="33" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" s="13">
-        <v>2048</v>
+        <v>3139</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="14"/>
       <c r="I33" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="25">
+        <v>85</v>
+      </c>
+      <c r="J33" s="20">
         <v>1</v>
       </c>
       <c r="K33" s="25">
@@ -2300,27 +2474,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1">
+    <row r="34" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C34" s="13">
-        <v>3139</v>
+        <v>3144</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="14"/>
       <c r="I34" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34" s="25">
+        <v>87</v>
+      </c>
+      <c r="J34" s="20">
         <v>1</v>
       </c>
       <c r="K34" s="25">
@@ -2330,24 +2504,24 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="13">
-        <v>3144</v>
+        <v>3205</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F35" s="14"/>
       <c r="I35" s="26"/>
@@ -2355,735 +2529,733 @@
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1">
+    <row r="36" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="13">
-        <v>3205</v>
+        <v>2887</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="14"/>
       <c r="I36" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J36" s="28">
         <f>SUM(J24:J35)</f>
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="K36" s="23">
         <f>SUM(K24:K35)</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L36" s="23">
         <f>SUM(L24:L35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="13">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1">
+    <row r="38" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="13">
-        <v>2886</v>
+        <v>2880</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1">
+    <row r="39" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="13">
-        <v>2880</v>
+        <v>2874</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1">
+    <row r="40" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="13">
-        <v>2874</v>
+        <v>2890</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1">
+    <row r="41" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="12">
-        <v>17</v>
-      </c>
-      <c r="B41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="13">
-        <v>2890</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="C41" s="16">
+        <v>2891</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="16">
-        <v>2891</v>
+        <v>3065</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1">
+    <row r="43" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="16">
-        <v>3065</v>
+        <v>3362</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1">
+    <row r="44" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="16">
-        <v>3362</v>
+        <v>2778</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F44" s="17"/>
       <c r="N44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="16">
-        <v>2778</v>
+        <v>3033</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1">
+    <row r="46" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="16">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1">
+    <row r="47" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="16">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1">
+    <row r="48" spans="1:14" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="16">
-        <v>3036</v>
+        <v>3041</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1">
+    <row r="49" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="16">
-        <v>3041</v>
+        <v>3173</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
+    <row r="50" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="16">
-        <v>3173</v>
+        <v>3039</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1">
+    <row r="51" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="16">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1">
+    <row r="52" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="16">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1">
+    <row r="53" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C53" s="16">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
+    <row r="54" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="16">
-        <v>3040</v>
+        <v>4068</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
+    <row r="55" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C55" s="16">
-        <v>4068</v>
+        <v>4495</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
+    <row r="56" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="16">
-        <v>4495</v>
+        <v>2979</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
+    <row r="57" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="16">
-        <v>2979</v>
+        <v>3625</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1">
+    <row r="58" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="16">
-        <v>3625</v>
+        <v>3658</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
+    <row r="59" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C59" s="16">
-        <v>3658</v>
+        <v>3001</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1">
+    <row r="60" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="16">
-        <v>3001</v>
+        <v>2660</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1">
+    <row r="61" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="16">
-        <v>2660</v>
+        <v>3147</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1">
-      <c r="A62" s="12">
-        <v>38</v>
-      </c>
+    <row r="62" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A62" s="12"/>
       <c r="B62" s="16" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="C62" s="16">
-        <v>3147</v>
+        <v>2326</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1">
+    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="12">
         <v>39</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="16">
         <v>3148</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1">
+    <row r="64" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="12">
         <v>40</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="16">
         <v>3002</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
+    <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="12">
         <v>41</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="16">
         <v>3000</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
+    <row r="66" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="12">
         <v>42</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="16">
         <v>3146</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1">
+    <row r="67" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="12">
         <v>43</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="16">
         <v>2066</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="17"/>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
+    <row r="68" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="12">
         <v>44</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="16">
         <v>4851</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F68" s="17"/>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1">
+    <row r="69" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="12">
         <v>45</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="16">
         <v>4850</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1">
+    <row r="70" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="12">
         <v>46</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="13">
         <v>4140</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
+    <row r="71" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="12">
         <v>47</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="16">
-        <v>2165</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="B71" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1687</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
+    <row r="72" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="12">
         <v>48</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="13">
-        <v>1687</v>
+        <v>3091</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F72" s="17"/>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1">
+    <row r="73" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="12">
         <v>49</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="13">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1">
+    <row r="74" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A74" s="12">
         <v>50</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="13">
-        <v>3092</v>
+        <v>3199</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
+    <row r="75" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A75" s="12">
         <v>51</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="13">
-        <v>3199</v>
+        <v>3009</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>51</v>
@@ -3093,123 +3265,123 @@
       </c>
       <c r="F75" s="17"/>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1">
+    <row r="76" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A76" s="12">
         <v>52</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="13">
-        <v>3009</v>
+        <v>3231</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F76" s="17"/>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1">
+    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A77" s="12">
         <v>53</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="13">
-        <v>3231</v>
+        <v>3102</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F77" s="17"/>
     </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1">
+    <row r="78" spans="1:6" ht="18" hidden="1" customHeight="1">
       <c r="A78" s="12">
         <v>54</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="13">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F78" s="17"/>
     </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1">
+    <row r="79" spans="1:6" ht="18" hidden="1" customHeight="1">
       <c r="A79" s="12">
         <v>55</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="13">
-        <v>3103</v>
+        <v>3108</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F79" s="17"/>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1">
+    <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="12">
         <v>56</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="13">
-        <v>3108</v>
+        <v>3230</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1">
+    <row r="81" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="12">
         <v>57</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="13">
-        <v>3230</v>
+        <v>3156</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F81" s="17"/>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1">
+    <row r="82" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="12">
         <v>58</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="13">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>51</v>
@@ -3219,15 +3391,15 @@
       </c>
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1">
+    <row r="83" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="12">
         <v>59</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="13">
-        <v>3159</v>
+        <v>1949</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>51</v>
@@ -3237,15 +3409,15 @@
       </c>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1">
+    <row r="84" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="12">
         <v>60</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="13">
-        <v>1949</v>
+        <v>3158</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>51</v>
@@ -3255,15 +3427,15 @@
       </c>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1">
+    <row r="85" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="12">
         <v>61</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="13">
-        <v>3158</v>
+        <v>2083</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>51</v>
@@ -3273,15 +3445,15 @@
       </c>
       <c r="F85" s="17"/>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1">
+    <row r="86" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="12">
         <v>62</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="13">
-        <v>2083</v>
+        <v>3014</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>51</v>
@@ -3296,16 +3468,16 @@
         <v>63</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="C87" s="13">
-        <v>3014</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F87" s="17"/>
     </row>
@@ -3316,14 +3488,14 @@
       <c r="B88" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="13">
-        <v>3070</v>
+      <c r="C88" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F88" s="17"/>
     </row>
@@ -3331,17 +3503,17 @@
       <c r="A89" s="12">
         <v>65</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="13">
-        <v>3071</v>
+      <c r="C89" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F89" s="17"/>
     </row>
@@ -3349,17 +3521,17 @@
       <c r="A90" s="12">
         <v>66</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="13">
-        <v>3073</v>
-      </c>
       <c r="D90" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F90" s="17"/>
     </row>
@@ -3367,17 +3539,17 @@
       <c r="A91" s="12">
         <v>67</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="13">
-        <v>3171</v>
+      <c r="B91" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F91" s="17"/>
     </row>
@@ -3385,17 +3557,17 @@
       <c r="A92" s="12">
         <v>68</v>
       </c>
-      <c r="B92" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="29">
-        <v>2906</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>71</v>
+      <c r="B92" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F92" s="17"/>
     </row>
@@ -3403,17 +3575,17 @@
       <c r="A93" s="12">
         <v>69</v>
       </c>
-      <c r="B93" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="29">
-        <v>3016</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>14</v>
+      <c r="B93" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F93" s="17"/>
     </row>
@@ -3421,17 +3593,17 @@
       <c r="A94" s="12">
         <v>70</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="13">
-        <v>2813</v>
+      <c r="B94" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F94" s="17"/>
     </row>
@@ -3439,17 +3611,17 @@
       <c r="A95" s="12">
         <v>71</v>
       </c>
-      <c r="B95" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C95" s="13">
-        <v>2803</v>
+      <c r="B95" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F95" s="17"/>
     </row>
@@ -3457,17 +3629,17 @@
       <c r="A96" s="12">
         <v>72</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" s="13">
-        <v>2802</v>
+      <c r="B96" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F96" s="17"/>
     </row>
@@ -3475,17 +3647,17 @@
       <c r="A97" s="12">
         <v>73</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C97" s="13">
-        <v>4158</v>
+      <c r="B97" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F97" s="17"/>
     </row>
@@ -3493,17 +3665,17 @@
       <c r="A98" s="12">
         <v>74</v>
       </c>
-      <c r="B98" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C98" s="29">
-        <v>4169</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>14</v>
+      <c r="B98" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F98" s="17"/>
     </row>
@@ -3511,17 +3683,17 @@
       <c r="A99" s="12">
         <v>75</v>
       </c>
-      <c r="B99" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C99" s="29">
-        <v>4164</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>14</v>
+      <c r="B99" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F99" s="17"/>
     </row>
@@ -3529,17 +3701,17 @@
       <c r="A100" s="12">
         <v>76</v>
       </c>
-      <c r="B100" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="29">
-        <v>4162</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>14</v>
+      <c r="B100" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F100" s="17"/>
     </row>
@@ -3547,886 +3719,1470 @@
       <c r="A101" s="12">
         <v>77</v>
       </c>
-      <c r="B101" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" s="29">
-        <v>4165</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>14</v>
+      <c r="B101" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F101" s="17"/>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1">
+    <row r="102" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="12">
         <v>78</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C102" s="13">
-        <v>4166</v>
+        <v>3070</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="17"/>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1">
+    <row r="103" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="12">
         <v>79</v>
       </c>
-      <c r="B103" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103" s="29">
-        <v>4157</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E103" s="29" t="s">
+      <c r="B103" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="13">
+        <v>3071</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="17"/>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1">
+    <row r="104" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="12">
         <v>80</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C104" s="13">
-        <v>4163</v>
+        <v>3073</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="17"/>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1">
+    <row r="105" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="12">
         <v>81</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C105" s="13">
-        <v>4173</v>
+        <v>3171</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="17"/>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1">
+    <row r="106" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="12">
         <v>82</v>
       </c>
-      <c r="B106" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C106" s="29">
-        <v>4174</v>
-      </c>
-      <c r="D106" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>14</v>
+      <c r="B106" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" s="33">
+        <v>2906</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="F106" s="17"/>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1">
+    <row r="107" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="12">
         <v>83</v>
       </c>
-      <c r="B107" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C107" s="13">
-        <v>4179</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E107" s="13" t="s">
+      <c r="B107" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="33">
+        <v>3016</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="17"/>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1">
+    <row r="108" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="12">
         <v>84</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C108" s="30">
-        <v>4203</v>
+        <v>166</v>
+      </c>
+      <c r="C108" s="13">
+        <v>2813</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F108" s="17"/>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1">
+    <row r="109" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="12">
         <v>85</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C109" s="30">
-        <v>4205</v>
+        <v>167</v>
+      </c>
+      <c r="C109" s="13">
+        <v>4158</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="17"/>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1">
+    <row r="110" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="12">
         <v>86</v>
       </c>
-      <c r="B110" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" s="30">
-        <v>4206</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E110" s="13" t="s">
+      <c r="B110" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="33">
+        <v>4169</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1">
+    <row r="111" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="12">
         <v>87</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C111" s="30">
-        <v>4207</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E111" s="13" t="s">
+      <c r="B111" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" s="33">
+        <v>4164</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="17"/>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1">
+    <row r="112" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="12">
         <v>88</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" s="30">
-        <v>2647</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112" s="13" t="s">
+      <c r="B112" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="33">
+        <v>4162</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="17"/>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1">
+    <row r="113" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="12">
         <v>89</v>
       </c>
-      <c r="B113" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="30">
-        <v>3078</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E113" s="13" t="s">
+      <c r="B113" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="33">
+        <v>4165</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="17"/>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1">
+    <row r="114" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="12">
         <v>90</v>
       </c>
-      <c r="B114" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" s="31">
-        <v>2088</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E114" s="29" t="s">
+      <c r="B114" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="13">
+        <v>4166</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E114" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1">
+    <row r="115" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="12">
         <v>91</v>
       </c>
-      <c r="B115" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C115" s="31">
-        <v>2964</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E115" s="29" t="s">
+      <c r="B115" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" s="33">
+        <v>4157</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="17"/>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1">
+    <row r="116" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="12">
         <v>92</v>
       </c>
-      <c r="B116" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C116" s="31">
-        <v>3254</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E116" s="29" t="s">
+      <c r="B116" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="13">
+        <v>4163</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="17"/>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1">
+    <row r="117" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="12">
         <v>93</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="30">
-        <v>3260</v>
+        <v>175</v>
+      </c>
+      <c r="C117" s="13">
+        <v>4173</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E117" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="17"/>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1">
+    <row r="118" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="12">
         <v>94</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C118" s="30">
-        <v>1896</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>71</v>
+      <c r="B118" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="33">
+        <v>4174</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F118" s="17"/>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1">
+    <row r="119" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="12">
         <v>95</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" s="30">
-        <v>1916</v>
+        <v>177</v>
+      </c>
+      <c r="C119" s="13">
+        <v>4179</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1">
+    <row r="120" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="12">
         <v>96</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C120" s="30">
-        <v>2864</v>
+        <v>178</v>
+      </c>
+      <c r="C120" s="34">
+        <v>4203</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1">
+    <row r="121" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="12">
         <v>97</v>
       </c>
-      <c r="B121" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C121" s="14">
-        <v>3098</v>
+      <c r="B121" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="34">
+        <v>4205</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1">
+    <row r="122" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="12">
         <v>98</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C122" s="14">
-        <v>4785</v>
+      <c r="B122" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" s="34">
+        <v>4206</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F122" s="17"/>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1">
+    <row r="123" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="12">
         <v>99</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" s="14">
-        <v>4786</v>
+      <c r="B123" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C123" s="34">
+        <v>4207</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F123" s="17"/>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1">
+    <row r="124" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="12">
         <v>100</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C124" s="14">
-        <v>4787</v>
+      <c r="B124" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" s="34">
+        <v>2647</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F124" s="17"/>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1">
+    <row r="125" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="12">
         <v>101</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="14">
-        <v>4788</v>
+      <c r="B125" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" s="34">
+        <v>3078</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F125" s="17"/>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1">
+    <row r="126" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="12">
         <v>102</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C126" s="14">
-        <v>4789</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>39</v>
+      <c r="B126" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="35">
+        <v>2088</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F126" s="17"/>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1">
+    <row r="127" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="12">
         <v>103</v>
       </c>
-      <c r="B127" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127" s="33">
-        <v>4812</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E127" s="29" t="s">
+      <c r="B127" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C127" s="35">
+        <v>2964</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E127" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="17"/>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1">
+    <row r="128" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="12">
         <v>104</v>
       </c>
-      <c r="B128" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="33">
-        <v>4811</v>
-      </c>
-      <c r="D128" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E128" s="29" t="s">
+      <c r="B128" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="35">
+        <v>3254</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1">
+    <row r="129" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="12">
         <v>105</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C129" s="13">
-        <v>2983</v>
+        <v>187</v>
+      </c>
+      <c r="C129" s="34">
+        <v>3260</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E129" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="17"/>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1">
+    <row r="130" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="12">
         <v>106</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C130" s="13">
-        <v>4160</v>
+        <v>188</v>
+      </c>
+      <c r="C130" s="34">
+        <v>1896</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F130" s="17"/>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1">
+    <row r="131" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="12">
         <v>107</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C131" s="34">
-        <v>4780</v>
+        <v>1916</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F131" s="17"/>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1">
+    <row r="132" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="12">
         <v>108</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C132" s="34">
-        <v>4558</v>
+        <v>2864</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F132" s="17"/>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1">
+    <row r="133" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="12">
         <v>109</v>
       </c>
-      <c r="B133" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="C133" s="33">
-        <v>4570</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E133" s="29" t="s">
-        <v>71</v>
+      <c r="B133" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" s="14">
+        <v>3098</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F133" s="17"/>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1">
+    <row r="134" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="12">
         <v>110</v>
       </c>
-      <c r="B134" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C134" s="34">
-        <v>4771</v>
+      <c r="B134" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C134" s="14">
+        <v>4785</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F134" s="17"/>
     </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1">
+    <row r="135" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="12">
         <v>111</v>
       </c>
-      <c r="B135" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C135" s="34">
-        <v>4782</v>
+      <c r="B135" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C135" s="14">
+        <v>4786</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E135" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F135" s="17"/>
     </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1">
+    <row r="136" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="12">
         <v>112</v>
       </c>
-      <c r="B136" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C136" s="33">
-        <v>4783</v>
-      </c>
-      <c r="D136" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E136" s="29" t="s">
+      <c r="B136" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C136" s="14">
+        <v>4787</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F136" s="17"/>
     </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1">
+    <row r="137" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="12">
         <v>113</v>
       </c>
-      <c r="B137" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C137" s="34">
-        <v>4790</v>
+      <c r="B137" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" s="14">
+        <v>4788</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E137" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F137" s="17"/>
     </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1">
+    <row r="138" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="12">
         <v>114</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C138" s="13">
-        <v>2015</v>
+      <c r="B138" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138" s="14">
+        <v>4789</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1">
+    <row r="139" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="12">
         <v>115</v>
       </c>
-      <c r="B139" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C139" s="13">
-        <v>2997</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>9</v>
+      <c r="B139" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139" s="37">
+        <v>4812</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F139" s="17"/>
     </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1">
+    <row r="140" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="12">
         <v>116</v>
       </c>
-      <c r="B140" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C140" s="13">
-        <v>3100</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>71</v>
+      <c r="B140" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="37">
+        <v>4811</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="F140" s="17"/>
     </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1">
+    <row r="141" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="12">
         <v>117</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C141" s="13">
-        <v>2796</v>
+        <v>2983</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F141" s="17"/>
     </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1">
+    <row r="142" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="12">
         <v>118</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C142" s="13">
-        <v>2178</v>
+        <v>4160</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="17"/>
     </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1">
+    <row r="143" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="12">
         <v>119</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C143" s="13">
-        <v>1945</v>
+      <c r="C143" s="38">
+        <v>4780</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1">
+    <row r="144" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="12">
         <v>120</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C144" s="13">
-        <v>1619</v>
+      <c r="C144" s="38">
+        <v>4558</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F144" s="17"/>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1">
+    <row r="145" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="12">
         <v>121</v>
       </c>
-      <c r="B145" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C145" s="13">
-        <v>3724</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>39</v>
+      <c r="B145" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C145" s="37">
+        <v>4570</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="F145" s="17"/>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1">
+    <row r="146" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="12">
         <v>122</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C146" s="13">
-        <v>3062</v>
+        <v>204</v>
+      </c>
+      <c r="C146" s="38">
+        <v>4771</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="17"/>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1">
+    <row r="147" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="12">
         <v>123</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C147" s="13">
-        <v>3269</v>
+        <v>205</v>
+      </c>
+      <c r="C147" s="38">
+        <v>4782</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F147" s="17"/>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1">
+    <row r="148" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="12">
         <v>124</v>
       </c>
-      <c r="B148" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C148" s="13">
-        <v>1805</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>31</v>
+      <c r="B148" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C148" s="37">
+        <v>4783</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="F148" s="17"/>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1">
+    <row r="149" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="12">
         <v>125</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C149" s="13">
+        <v>207</v>
+      </c>
+      <c r="C149" s="38">
+        <v>4790</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F149" s="17"/>
+    </row>
+    <row r="150" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A150" s="12">
+        <v>126</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C150" s="13">
+        <v>2015</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F150" s="17"/>
+    </row>
+    <row r="151" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A151" s="12">
+        <v>127</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" s="13">
+        <v>2997</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A152" s="12">
+        <v>128</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C152" s="13">
+        <v>3100</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F152" s="17"/>
+    </row>
+    <row r="153" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A153" s="12">
+        <v>129</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C153" s="13">
+        <v>2796</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" s="17"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1">
+      <c r="A154" s="12">
+        <v>130</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="17"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" customHeight="1">
+      <c r="A155" s="12">
+        <v>131</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" s="17"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" customHeight="1">
+      <c r="A156" s="12">
+        <v>132</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" s="17"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" customHeight="1">
+      <c r="A157" s="12">
+        <v>133</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" s="17"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1">
+      <c r="A158" s="12">
+        <v>134</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" s="17"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1">
+      <c r="A159" s="12">
+        <v>135</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F159" s="17"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1">
+      <c r="A160" s="12">
+        <v>136</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="17"/>
+    </row>
+    <row r="161" spans="1:6" ht="15" customHeight="1">
+      <c r="A161" s="12">
+        <v>137</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E161" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="17"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" customHeight="1">
+      <c r="A162" s="12">
+        <v>138</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" s="17"/>
+    </row>
+    <row r="163" spans="1:6" ht="15" customHeight="1">
+      <c r="A163" s="12">
+        <v>139</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" s="17"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1">
+      <c r="A164" s="12">
+        <v>140</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="17"/>
+    </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1">
+      <c r="A165" s="12">
+        <v>141</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D165" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E165" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" s="17"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1">
+      <c r="A166" s="12">
+        <v>142</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" s="17"/>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1">
+      <c r="A167" s="12">
+        <v>143</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" s="17"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1">
+      <c r="A168" s="12">
+        <v>144</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="17"/>
+    </row>
+    <row r="169" spans="1:6" ht="15" customHeight="1">
+      <c r="A169" s="12">
+        <v>145</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" s="17"/>
+    </row>
+    <row r="170" spans="1:6" ht="15" customHeight="1">
+      <c r="A170" s="12">
+        <v>146</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" s="17"/>
+    </row>
+    <row r="171" spans="1:6" ht="15" customHeight="1">
+      <c r="A171" s="12">
+        <v>147</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F171" s="17"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" customHeight="1">
+      <c r="A172" s="12">
+        <v>148</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" s="17"/>
+    </row>
+    <row r="173" spans="1:6" ht="15" customHeight="1">
+      <c r="A173" s="12">
+        <v>149</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F173" s="17"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A174" s="12">
+        <v>150</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C174" s="13">
+        <v>2178</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="17"/>
+    </row>
+    <row r="175" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A175" s="12">
+        <v>151</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C175" s="13">
+        <v>1945</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="17"/>
+    </row>
+    <row r="176" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A176" s="12">
+        <v>152</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C176" s="13">
+        <v>1619</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E176" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F176" s="17"/>
+    </row>
+    <row r="177" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A177" s="12">
+        <v>153</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C177" s="13">
+        <v>3724</v>
+      </c>
+      <c r="D177" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E177" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" s="17"/>
+    </row>
+    <row r="178" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A178" s="12">
+        <v>154</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C178" s="13">
+        <v>3062</v>
+      </c>
+      <c r="D178" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="17"/>
+    </row>
+    <row r="179" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A179" s="12">
+        <v>155</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C179" s="13">
+        <v>3269</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="17"/>
+    </row>
+    <row r="180" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A180" s="12">
+        <v>156</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C180" s="13">
+        <v>1805</v>
+      </c>
+      <c r="D180" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F180" s="17"/>
+    </row>
+    <row r="181" spans="1:6" ht="15" hidden="1" customHeight="1">
+      <c r="A181" s="12">
+        <v>157</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C181" s="13">
         <v>4401</v>
       </c>
-      <c r="D149" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E149" s="13" t="s">
+      <c r="D181" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F149" s="17"/>
-    </row>
+      <c r="F181" s="17"/>
+    </row>
+    <row r="182" spans="1:6" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:F150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F182" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Alcon"/>
+        <filter val="Nesmat"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="16">
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="K17:M17"/>
@@ -4447,6 +5203,572 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9259E6-C971-480E-95BA-74B379D78B58}">
+  <dimension ref="A3:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="16.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.77734375" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A4" s="57">
+        <v>1</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A5" s="57">
+        <v>2</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A6" s="57">
+        <v>3</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A7" s="57">
+        <v>4</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A8" s="57">
+        <v>5</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A9" s="57">
+        <v>6</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A10" s="57">
+        <v>7</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A11" s="57">
+        <v>8</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A12" s="57">
+        <v>9</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A13" s="57">
+        <v>10</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A14" s="57">
+        <v>11</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A15" s="57">
+        <v>12</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A16" s="57">
+        <v>13</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="58"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A17" s="57">
+        <v>14</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A18" s="57">
+        <v>15</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="58"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A19" s="57">
+        <v>16</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A20" s="57">
+        <v>17</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="58"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A21" s="57">
+        <v>18</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="58"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A22" s="57">
+        <v>19</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A23" s="57">
+        <v>20</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="58"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A24" s="57">
+        <v>21</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="58"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A25" s="57">
+        <v>22</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="58"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A26" s="57">
+        <v>23</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="58"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A27" s="57">
+        <v>24</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A28" s="57">
+        <v>25</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A29" s="57">
+        <v>26</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="58"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A30" s="57">
+        <v>27</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="58"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A31" s="57">
+        <v>28</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="58"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A32" s="57">
+        <v>29</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="58"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A33" s="57">
+        <v>30</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="58"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A34" s="57">
+        <v>31</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="58"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A35" s="57">
+        <v>32</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="58"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A36" s="57">
+        <v>33</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="58"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A37" s="57">
+        <v>34</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="58"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.95" customHeight="1">
+      <c r="A38" s="57">
+        <v>35</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>